--- a/data/doaj-article-sample.xlsx
+++ b/data/doaj-article-sample.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10978" uniqueCount="5935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10978" uniqueCount="5936">
   <si>
     <t>Title</t>
   </si>
@@ -17832,6 +17832,9 @@
   </si>
   <si>
     <t>International Union of Crystallography; Chester, England</t>
+  </si>
+  <si>
+    <t>MDPI AG  ; Basel, Switzerland</t>
   </si>
 </sst>
 </file>
@@ -18148,8 +18151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19260,7 +19263,7 @@
         <v>218</v>
       </c>
       <c r="I32" t="s">
-        <v>5929</v>
+        <v>5935</v>
       </c>
       <c r="J32" t="s">
         <v>219</v>
@@ -19295,7 +19298,7 @@
         <v>225</v>
       </c>
       <c r="I33" t="s">
-        <v>5929</v>
+        <v>5935</v>
       </c>
       <c r="J33" t="s">
         <v>226</v>
@@ -19709,7 +19712,7 @@
         <v>305</v>
       </c>
       <c r="I45" t="s">
-        <v>5929</v>
+        <v>5935</v>
       </c>
       <c r="J45" t="s">
         <v>306</v>

--- a/data/doaj-article-sample.xlsx
+++ b/data/doaj-article-sample.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E606A-2773-0C41-8EB0-E8DCC738A5AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380"/>
+    <workbookView xWindow="880" yWindow="4220" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doaj article sample csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'doaj article sample csv'!$I$1:$I$1002</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -17822,29 +17826,36 @@
     <t>Aurel Vlaicu University Editing House; Arad, Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">Society of Pharmaceutical Technocrats; Delhi, India </t>
-  </si>
-  <si>
     <t>Consejo Superior de Investigaciones Científicas; Madrid Spain</t>
   </si>
   <si>
-    <t>Akshantala Enterprises; Karnataka, India</t>
-  </si>
-  <si>
     <t>International Union of Crystallography; Chester, England</t>
   </si>
   <si>
     <t>MDPI AG  ; Basel, Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCIETY OF PHARMACEUTICAL TECHNOCRATS; Delhi, India </t>
+  </si>
+  <si>
+    <t>AKSHANTALA ENTERPRISES; Karnataka, India</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -17870,8 +17881,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17881,6 +17893,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -18148,17 +18163,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="9" max="9" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -19263,7 +19278,7 @@
         <v>218</v>
       </c>
       <c r="I32" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="J32" t="s">
         <v>219</v>
@@ -19298,7 +19313,7 @@
         <v>225</v>
       </c>
       <c r="I33" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="J33" t="s">
         <v>226</v>
@@ -19712,7 +19727,7 @@
         <v>305</v>
       </c>
       <c r="I45" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="J45" t="s">
         <v>306</v>
@@ -21818,8 +21833,8 @@
       <c r="H107" t="s">
         <v>686</v>
       </c>
-      <c r="I107" t="s">
-        <v>5931</v>
+      <c r="I107" s="1" t="s">
+        <v>5934</v>
       </c>
       <c r="J107" t="s">
         <v>687</v>
@@ -21847,8 +21862,8 @@
       <c r="H108" t="s">
         <v>686</v>
       </c>
-      <c r="I108" t="s">
-        <v>5931</v>
+      <c r="I108" s="1" t="s">
+        <v>5934</v>
       </c>
       <c r="J108" t="s">
         <v>692</v>
@@ -21876,8 +21891,8 @@
       <c r="H109" t="s">
         <v>686</v>
       </c>
-      <c r="I109" t="s">
-        <v>5931</v>
+      <c r="I109" s="1" t="s">
+        <v>5934</v>
       </c>
       <c r="J109" t="s">
         <v>697</v>
@@ -21905,8 +21920,8 @@
       <c r="H110" t="s">
         <v>686</v>
       </c>
-      <c r="I110" t="s">
-        <v>5931</v>
+      <c r="I110" s="1" t="s">
+        <v>5934</v>
       </c>
       <c r="J110" t="s">
         <v>702</v>
@@ -21934,8 +21949,8 @@
       <c r="H111" t="s">
         <v>686</v>
       </c>
-      <c r="I111" t="s">
-        <v>5931</v>
+      <c r="I111" s="1" t="s">
+        <v>5934</v>
       </c>
       <c r="J111" t="s">
         <v>707</v>
@@ -21963,8 +21978,8 @@
       <c r="H112" t="s">
         <v>686</v>
       </c>
-      <c r="I112" t="s">
-        <v>5931</v>
+      <c r="I112" s="1" t="s">
+        <v>5934</v>
       </c>
       <c r="J112" t="s">
         <v>712</v>
@@ -21996,7 +22011,7 @@
         <v>720</v>
       </c>
       <c r="I113" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J113" t="s">
         <v>721</v>
@@ -22031,7 +22046,7 @@
         <v>720</v>
       </c>
       <c r="I114" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J114" t="s">
         <v>729</v>
@@ -22066,7 +22081,7 @@
         <v>720</v>
       </c>
       <c r="I115" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J115" t="s">
         <v>735</v>
@@ -22101,7 +22116,7 @@
         <v>720</v>
       </c>
       <c r="I116" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J116" t="s">
         <v>741</v>
@@ -22136,7 +22151,7 @@
         <v>720</v>
       </c>
       <c r="I117" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J117" t="s">
         <v>747</v>
@@ -22171,7 +22186,7 @@
         <v>720</v>
       </c>
       <c r="I118" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J118" t="s">
         <v>753</v>
@@ -22206,7 +22221,7 @@
         <v>720</v>
       </c>
       <c r="I119" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J119" t="s">
         <v>759</v>
@@ -22241,7 +22256,7 @@
         <v>720</v>
       </c>
       <c r="I120" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J120" t="s">
         <v>765</v>
@@ -22276,7 +22291,7 @@
         <v>720</v>
       </c>
       <c r="I121" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J121" t="s">
         <v>771</v>
@@ -22311,7 +22326,7 @@
         <v>720</v>
       </c>
       <c r="I122" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J122" t="s">
         <v>777</v>
@@ -22346,7 +22361,7 @@
         <v>720</v>
       </c>
       <c r="I123" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J123" t="s">
         <v>783</v>
@@ -22380,8 +22395,8 @@
       <c r="H124" t="s">
         <v>790</v>
       </c>
-      <c r="I124" t="s">
-        <v>5933</v>
+      <c r="I124" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J124" t="s">
         <v>791</v>
@@ -22415,8 +22430,8 @@
       <c r="H125" t="s">
         <v>790</v>
       </c>
-      <c r="I125" t="s">
-        <v>5933</v>
+      <c r="I125" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J125" t="s">
         <v>797</v>
@@ -22450,8 +22465,8 @@
       <c r="H126" t="s">
         <v>790</v>
       </c>
-      <c r="I126" t="s">
-        <v>5933</v>
+      <c r="I126" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J126" t="s">
         <v>803</v>
@@ -22485,8 +22500,8 @@
       <c r="H127" t="s">
         <v>790</v>
       </c>
-      <c r="I127" t="s">
-        <v>5933</v>
+      <c r="I127" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J127" t="s">
         <v>809</v>
@@ -22520,8 +22535,8 @@
       <c r="H128" t="s">
         <v>790</v>
       </c>
-      <c r="I128" t="s">
-        <v>5933</v>
+      <c r="I128" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J128" t="s">
         <v>814</v>
@@ -22555,8 +22570,8 @@
       <c r="H129" t="s">
         <v>790</v>
       </c>
-      <c r="I129" t="s">
-        <v>5933</v>
+      <c r="I129" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J129" t="s">
         <v>820</v>
@@ -22590,8 +22605,8 @@
       <c r="H130" t="s">
         <v>790</v>
       </c>
-      <c r="I130" t="s">
-        <v>5933</v>
+      <c r="I130" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J130" t="s">
         <v>826</v>
@@ -22625,8 +22640,8 @@
       <c r="H131" t="s">
         <v>790</v>
       </c>
-      <c r="I131" t="s">
-        <v>5933</v>
+      <c r="I131" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J131" t="s">
         <v>832</v>
@@ -22660,8 +22675,8 @@
       <c r="H132" t="s">
         <v>790</v>
       </c>
-      <c r="I132" t="s">
-        <v>5933</v>
+      <c r="I132" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J132" t="s">
         <v>838</v>
@@ -22727,8 +22742,8 @@
       <c r="H134" t="s">
         <v>790</v>
       </c>
-      <c r="I134" t="s">
-        <v>5933</v>
+      <c r="I134" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J134" t="s">
         <v>850</v>
@@ -22794,8 +22809,8 @@
       <c r="H136" t="s">
         <v>790</v>
       </c>
-      <c r="I136" t="s">
-        <v>5933</v>
+      <c r="I136" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J136" t="s">
         <v>861</v>
@@ -22861,8 +22876,8 @@
       <c r="H138" t="s">
         <v>790</v>
       </c>
-      <c r="I138" t="s">
-        <v>5933</v>
+      <c r="I138" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J138" t="s">
         <v>872</v>
@@ -23024,8 +23039,8 @@
       <c r="H143" t="s">
         <v>790</v>
       </c>
-      <c r="I143" t="s">
-        <v>5933</v>
+      <c r="I143" s="1" t="s">
+        <v>5935</v>
       </c>
       <c r="J143" t="s">
         <v>898</v>
@@ -23060,7 +23075,7 @@
         <v>905</v>
       </c>
       <c r="I144" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J144" t="s">
         <v>906</v>
@@ -23095,7 +23110,7 @@
         <v>905</v>
       </c>
       <c r="I145" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J145" t="s">
         <v>912</v>
@@ -23130,7 +23145,7 @@
         <v>905</v>
       </c>
       <c r="I146" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J146" t="s">
         <v>918</v>
@@ -23165,7 +23180,7 @@
         <v>905</v>
       </c>
       <c r="I147" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J147" t="s">
         <v>924</v>
@@ -23200,7 +23215,7 @@
         <v>905</v>
       </c>
       <c r="I148" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J148" t="s">
         <v>930</v>
@@ -23235,7 +23250,7 @@
         <v>905</v>
       </c>
       <c r="I149" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J149" t="s">
         <v>936</v>
@@ -23270,7 +23285,7 @@
         <v>905</v>
       </c>
       <c r="I150" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J150" t="s">
         <v>942</v>
@@ -23305,7 +23320,7 @@
         <v>905</v>
       </c>
       <c r="I151" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J151" t="s">
         <v>948</v>
@@ -23340,7 +23355,7 @@
         <v>905</v>
       </c>
       <c r="I152" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J152" t="s">
         <v>954</v>
@@ -23375,7 +23390,7 @@
         <v>905</v>
       </c>
       <c r="I153" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J153" t="s">
         <v>960</v>
@@ -23410,7 +23425,7 @@
         <v>905</v>
       </c>
       <c r="I154" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J154" t="s">
         <v>966</v>
@@ -23445,7 +23460,7 @@
         <v>905</v>
       </c>
       <c r="I155" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J155" t="s">
         <v>972</v>
@@ -23480,7 +23495,7 @@
         <v>905</v>
       </c>
       <c r="I156" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J156" t="s">
         <v>978</v>
@@ -23515,7 +23530,7 @@
         <v>905</v>
       </c>
       <c r="I157" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J157" t="s">
         <v>984</v>
@@ -23550,7 +23565,7 @@
         <v>905</v>
       </c>
       <c r="I158" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J158" t="s">
         <v>990</v>
@@ -23585,7 +23600,7 @@
         <v>905</v>
       </c>
       <c r="I159" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J159" t="s">
         <v>996</v>
@@ -23620,7 +23635,7 @@
         <v>905</v>
       </c>
       <c r="I160" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J160" t="s">
         <v>1002</v>
@@ -23655,7 +23670,7 @@
         <v>905</v>
       </c>
       <c r="I161" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J161" t="s">
         <v>1008</v>
@@ -23690,7 +23705,7 @@
         <v>905</v>
       </c>
       <c r="I162" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J162" t="s">
         <v>1014</v>
@@ -23725,7 +23740,7 @@
         <v>905</v>
       </c>
       <c r="I163" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J163" t="s">
         <v>1020</v>
@@ -23760,7 +23775,7 @@
         <v>905</v>
       </c>
       <c r="I164" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J164" t="s">
         <v>1026</v>
@@ -23795,7 +23810,7 @@
         <v>905</v>
       </c>
       <c r="I165" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J165" t="s">
         <v>1032</v>
@@ -23830,7 +23845,7 @@
         <v>905</v>
       </c>
       <c r="I166" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J166" t="s">
         <v>1038</v>
@@ -23865,7 +23880,7 @@
         <v>905</v>
       </c>
       <c r="I167" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J167" t="s">
         <v>1044</v>
@@ -23900,7 +23915,7 @@
         <v>905</v>
       </c>
       <c r="I168" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J168" t="s">
         <v>1050</v>
@@ -23935,7 +23950,7 @@
         <v>905</v>
       </c>
       <c r="I169" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J169" t="s">
         <v>1056</v>
@@ -23970,7 +23985,7 @@
         <v>905</v>
       </c>
       <c r="I170" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J170" t="s">
         <v>1062</v>
@@ -24005,7 +24020,7 @@
         <v>905</v>
       </c>
       <c r="I171" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J171" t="s">
         <v>1068</v>
@@ -24040,7 +24055,7 @@
         <v>905</v>
       </c>
       <c r="I172" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J172" t="s">
         <v>1074</v>
@@ -24075,7 +24090,7 @@
         <v>905</v>
       </c>
       <c r="I173" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J173" t="s">
         <v>1080</v>
@@ -24110,7 +24125,7 @@
         <v>905</v>
       </c>
       <c r="I174" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J174" t="s">
         <v>1086</v>
@@ -24145,7 +24160,7 @@
         <v>905</v>
       </c>
       <c r="I175" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J175" t="s">
         <v>1092</v>
@@ -24180,7 +24195,7 @@
         <v>905</v>
       </c>
       <c r="I176" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J176" t="s">
         <v>1098</v>
@@ -24215,7 +24230,7 @@
         <v>905</v>
       </c>
       <c r="I177" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J177" t="s">
         <v>1104</v>
@@ -24250,7 +24265,7 @@
         <v>905</v>
       </c>
       <c r="I178" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J178" t="s">
         <v>1110</v>
@@ -24285,7 +24300,7 @@
         <v>905</v>
       </c>
       <c r="I179" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J179" t="s">
         <v>1116</v>
@@ -24320,7 +24335,7 @@
         <v>905</v>
       </c>
       <c r="I180" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J180" t="s">
         <v>1122</v>
@@ -24355,7 +24370,7 @@
         <v>905</v>
       </c>
       <c r="I181" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J181" t="s">
         <v>1128</v>
@@ -24390,7 +24405,7 @@
         <v>905</v>
       </c>
       <c r="I182" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J182" t="s">
         <v>1134</v>
@@ -24425,7 +24440,7 @@
         <v>905</v>
       </c>
       <c r="I183" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J183" t="s">
         <v>1140</v>
@@ -24460,7 +24475,7 @@
         <v>905</v>
       </c>
       <c r="I184" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J184" t="s">
         <v>1146</v>
@@ -24495,7 +24510,7 @@
         <v>905</v>
       </c>
       <c r="I185" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J185" t="s">
         <v>1152</v>
@@ -24530,7 +24545,7 @@
         <v>905</v>
       </c>
       <c r="I186" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J186" t="s">
         <v>1158</v>
@@ -24565,7 +24580,7 @@
         <v>905</v>
       </c>
       <c r="I187" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J187" t="s">
         <v>1163</v>
@@ -24600,7 +24615,7 @@
         <v>905</v>
       </c>
       <c r="I188" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J188" t="s">
         <v>1169</v>
@@ -24635,7 +24650,7 @@
         <v>905</v>
       </c>
       <c r="I189" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J189" t="s">
         <v>1175</v>
@@ -24670,7 +24685,7 @@
         <v>905</v>
       </c>
       <c r="I190" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J190" t="s">
         <v>1181</v>
@@ -24705,7 +24720,7 @@
         <v>905</v>
       </c>
       <c r="I191" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J191" t="s">
         <v>1186</v>
@@ -24740,7 +24755,7 @@
         <v>905</v>
       </c>
       <c r="I192" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J192" t="s">
         <v>1192</v>
@@ -24775,7 +24790,7 @@
         <v>905</v>
       </c>
       <c r="I193" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J193" t="s">
         <v>1198</v>
@@ -24810,7 +24825,7 @@
         <v>905</v>
       </c>
       <c r="I194" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J194" t="s">
         <v>1204</v>
@@ -24845,7 +24860,7 @@
         <v>905</v>
       </c>
       <c r="I195" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J195" t="s">
         <v>1210</v>
@@ -24880,7 +24895,7 @@
         <v>905</v>
       </c>
       <c r="I196" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J196" t="s">
         <v>1216</v>
@@ -24915,7 +24930,7 @@
         <v>905</v>
       </c>
       <c r="I197" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J197" t="s">
         <v>1222</v>
@@ -24950,7 +24965,7 @@
         <v>905</v>
       </c>
       <c r="I198" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J198" t="s">
         <v>1228</v>
@@ -24985,7 +25000,7 @@
         <v>905</v>
       </c>
       <c r="I199" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J199" t="s">
         <v>1234</v>
@@ -25020,7 +25035,7 @@
         <v>905</v>
       </c>
       <c r="I200" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J200" t="s">
         <v>1240</v>
@@ -25055,7 +25070,7 @@
         <v>905</v>
       </c>
       <c r="I201" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J201" t="s">
         <v>1246</v>
@@ -25090,7 +25105,7 @@
         <v>905</v>
       </c>
       <c r="I202" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J202" t="s">
         <v>1252</v>
@@ -25125,7 +25140,7 @@
         <v>905</v>
       </c>
       <c r="I203" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J203" t="s">
         <v>1258</v>
@@ -25160,7 +25175,7 @@
         <v>905</v>
       </c>
       <c r="I204" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J204" t="s">
         <v>1264</v>
@@ -25195,7 +25210,7 @@
         <v>905</v>
       </c>
       <c r="I205" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J205" t="s">
         <v>1270</v>
@@ -25230,7 +25245,7 @@
         <v>905</v>
       </c>
       <c r="I206" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J206" t="s">
         <v>1275</v>
@@ -25265,7 +25280,7 @@
         <v>905</v>
       </c>
       <c r="I207" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J207" t="s">
         <v>1281</v>
@@ -25300,7 +25315,7 @@
         <v>905</v>
       </c>
       <c r="I208" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J208" t="s">
         <v>1287</v>
@@ -25335,7 +25350,7 @@
         <v>905</v>
       </c>
       <c r="I209" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J209" t="s">
         <v>1293</v>
@@ -25370,7 +25385,7 @@
         <v>905</v>
       </c>
       <c r="I210" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J210" t="s">
         <v>1298</v>
@@ -25405,7 +25420,7 @@
         <v>905</v>
       </c>
       <c r="I211" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J211" t="s">
         <v>1304</v>
@@ -25440,7 +25455,7 @@
         <v>905</v>
       </c>
       <c r="I212" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J212" t="s">
         <v>1310</v>
@@ -25475,7 +25490,7 @@
         <v>905</v>
       </c>
       <c r="I213" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J213" t="s">
         <v>1316</v>
@@ -25510,7 +25525,7 @@
         <v>905</v>
       </c>
       <c r="I214" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J214" t="s">
         <v>1322</v>
@@ -25545,7 +25560,7 @@
         <v>905</v>
       </c>
       <c r="I215" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J215" t="s">
         <v>1328</v>
@@ -25580,7 +25595,7 @@
         <v>905</v>
       </c>
       <c r="I216" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J216" t="s">
         <v>1334</v>
@@ -25615,7 +25630,7 @@
         <v>905</v>
       </c>
       <c r="I217" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J217" t="s">
         <v>1340</v>
@@ -25650,7 +25665,7 @@
         <v>905</v>
       </c>
       <c r="I218" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J218" t="s">
         <v>1346</v>
@@ -25685,7 +25700,7 @@
         <v>905</v>
       </c>
       <c r="I219" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J219" t="s">
         <v>1352</v>
@@ -25720,7 +25735,7 @@
         <v>905</v>
       </c>
       <c r="I220" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J220" t="s">
         <v>1358</v>
@@ -25755,7 +25770,7 @@
         <v>905</v>
       </c>
       <c r="I221" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J221" t="s">
         <v>1364</v>
@@ -25790,7 +25805,7 @@
         <v>905</v>
       </c>
       <c r="I222" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J222" t="s">
         <v>1370</v>
@@ -25825,7 +25840,7 @@
         <v>905</v>
       </c>
       <c r="I223" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J223" t="s">
         <v>1376</v>
@@ -25860,7 +25875,7 @@
         <v>905</v>
       </c>
       <c r="I224" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J224" t="s">
         <v>1382</v>
@@ -25895,7 +25910,7 @@
         <v>905</v>
       </c>
       <c r="I225" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J225" t="s">
         <v>1388</v>
@@ -25930,7 +25945,7 @@
         <v>905</v>
       </c>
       <c r="I226" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J226" t="s">
         <v>1394</v>
@@ -25965,7 +25980,7 @@
         <v>905</v>
       </c>
       <c r="I227" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J227" t="s">
         <v>1400</v>
@@ -26000,7 +26015,7 @@
         <v>905</v>
       </c>
       <c r="I228" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J228" t="s">
         <v>1406</v>
@@ -26035,7 +26050,7 @@
         <v>905</v>
       </c>
       <c r="I229" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J229" t="s">
         <v>1412</v>
@@ -26070,7 +26085,7 @@
         <v>905</v>
       </c>
       <c r="I230" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J230" t="s">
         <v>1417</v>
@@ -26105,7 +26120,7 @@
         <v>905</v>
       </c>
       <c r="I231" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J231" t="s">
         <v>1423</v>
@@ -26140,7 +26155,7 @@
         <v>905</v>
       </c>
       <c r="I232" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J232" t="s">
         <v>1429</v>
@@ -26175,7 +26190,7 @@
         <v>905</v>
       </c>
       <c r="I233" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J233" t="s">
         <v>1434</v>
@@ -26210,7 +26225,7 @@
         <v>905</v>
       </c>
       <c r="I234" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J234" t="s">
         <v>1440</v>
@@ -26245,7 +26260,7 @@
         <v>905</v>
       </c>
       <c r="I235" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J235" t="s">
         <v>1446</v>
@@ -26280,7 +26295,7 @@
         <v>905</v>
       </c>
       <c r="I236" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J236" t="s">
         <v>1452</v>
@@ -26315,7 +26330,7 @@
         <v>905</v>
       </c>
       <c r="I237" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J237" t="s">
         <v>1458</v>
@@ -26350,7 +26365,7 @@
         <v>905</v>
       </c>
       <c r="I238" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J238" t="s">
         <v>1464</v>
@@ -26385,7 +26400,7 @@
         <v>905</v>
       </c>
       <c r="I239" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J239" t="s">
         <v>1470</v>
@@ -26420,7 +26435,7 @@
         <v>905</v>
       </c>
       <c r="I240" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J240" t="s">
         <v>1476</v>
@@ -26455,7 +26470,7 @@
         <v>905</v>
       </c>
       <c r="I241" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J241" t="s">
         <v>1482</v>
@@ -26490,7 +26505,7 @@
         <v>905</v>
       </c>
       <c r="I242" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J242" t="s">
         <v>1488</v>
@@ -26525,7 +26540,7 @@
         <v>905</v>
       </c>
       <c r="I243" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J243" t="s">
         <v>1494</v>
@@ -26560,7 +26575,7 @@
         <v>905</v>
       </c>
       <c r="I244" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J244" t="s">
         <v>1500</v>
@@ -26595,7 +26610,7 @@
         <v>905</v>
       </c>
       <c r="I245" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J245" t="s">
         <v>1505</v>
@@ -26630,7 +26645,7 @@
         <v>905</v>
       </c>
       <c r="I246" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J246" t="s">
         <v>1511</v>
@@ -26665,7 +26680,7 @@
         <v>905</v>
       </c>
       <c r="I247" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J247" t="s">
         <v>1517</v>
@@ -26700,7 +26715,7 @@
         <v>905</v>
       </c>
       <c r="I248" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J248" t="s">
         <v>1524</v>
@@ -26735,7 +26750,7 @@
         <v>905</v>
       </c>
       <c r="I249" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J249" t="s">
         <v>1530</v>
@@ -26770,7 +26785,7 @@
         <v>905</v>
       </c>
       <c r="I250" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J250" t="s">
         <v>1536</v>
@@ -26805,7 +26820,7 @@
         <v>905</v>
       </c>
       <c r="I251" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J251" t="s">
         <v>1542</v>
@@ -26840,7 +26855,7 @@
         <v>905</v>
       </c>
       <c r="I252" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J252" t="s">
         <v>1548</v>
@@ -26875,7 +26890,7 @@
         <v>905</v>
       </c>
       <c r="I253" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J253" t="s">
         <v>1554</v>
@@ -26910,7 +26925,7 @@
         <v>905</v>
       </c>
       <c r="I254" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J254" t="s">
         <v>1560</v>
@@ -26945,7 +26960,7 @@
         <v>905</v>
       </c>
       <c r="I255" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J255" t="s">
         <v>1566</v>
@@ -26980,7 +26995,7 @@
         <v>905</v>
       </c>
       <c r="I256" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J256" t="s">
         <v>1572</v>
@@ -27015,7 +27030,7 @@
         <v>905</v>
       </c>
       <c r="I257" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J257" t="s">
         <v>1578</v>
@@ -27050,7 +27065,7 @@
         <v>905</v>
       </c>
       <c r="I258" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J258" t="s">
         <v>1584</v>
@@ -27085,7 +27100,7 @@
         <v>905</v>
       </c>
       <c r="I259" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J259" t="s">
         <v>1590</v>
@@ -27120,7 +27135,7 @@
         <v>905</v>
       </c>
       <c r="I260" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J260" t="s">
         <v>1596</v>
@@ -27155,7 +27170,7 @@
         <v>905</v>
       </c>
       <c r="I261" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J261" t="s">
         <v>1602</v>
@@ -27190,7 +27205,7 @@
         <v>905</v>
       </c>
       <c r="I262" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J262" t="s">
         <v>1608</v>
@@ -27225,7 +27240,7 @@
         <v>905</v>
       </c>
       <c r="I263" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J263" t="s">
         <v>1614</v>
@@ -27260,7 +27275,7 @@
         <v>905</v>
       </c>
       <c r="I264" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J264" t="s">
         <v>1619</v>
@@ -27295,7 +27310,7 @@
         <v>905</v>
       </c>
       <c r="I265" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J265" t="s">
         <v>1625</v>
@@ -27330,7 +27345,7 @@
         <v>905</v>
       </c>
       <c r="I266" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J266" t="s">
         <v>1631</v>
@@ -27365,7 +27380,7 @@
         <v>905</v>
       </c>
       <c r="I267" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J267" t="s">
         <v>1637</v>
@@ -27400,7 +27415,7 @@
         <v>905</v>
       </c>
       <c r="I268" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J268" t="s">
         <v>1643</v>
@@ -27435,7 +27450,7 @@
         <v>905</v>
       </c>
       <c r="I269" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J269" t="s">
         <v>1649</v>
@@ -27470,7 +27485,7 @@
         <v>905</v>
       </c>
       <c r="I270" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J270" t="s">
         <v>1655</v>
@@ -27505,7 +27520,7 @@
         <v>905</v>
       </c>
       <c r="I271" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J271" t="s">
         <v>1661</v>
@@ -27540,7 +27555,7 @@
         <v>905</v>
       </c>
       <c r="I272" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J272" t="s">
         <v>1667</v>
@@ -27575,7 +27590,7 @@
         <v>905</v>
       </c>
       <c r="I273" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J273" t="s">
         <v>1673</v>
@@ -27610,7 +27625,7 @@
         <v>905</v>
       </c>
       <c r="I274" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J274" t="s">
         <v>1679</v>
@@ -27645,7 +27660,7 @@
         <v>905</v>
       </c>
       <c r="I275" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J275" t="s">
         <v>1685</v>
@@ -27680,7 +27695,7 @@
         <v>905</v>
       </c>
       <c r="I276" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J276" t="s">
         <v>1691</v>
@@ -27715,7 +27730,7 @@
         <v>905</v>
       </c>
       <c r="I277" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J277" t="s">
         <v>1696</v>
@@ -27750,7 +27765,7 @@
         <v>905</v>
       </c>
       <c r="I278" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J278" t="s">
         <v>1702</v>
@@ -27785,7 +27800,7 @@
         <v>905</v>
       </c>
       <c r="I279" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J279" t="s">
         <v>1708</v>
@@ -27820,7 +27835,7 @@
         <v>905</v>
       </c>
       <c r="I280" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J280" t="s">
         <v>1714</v>
@@ -27855,7 +27870,7 @@
         <v>905</v>
       </c>
       <c r="I281" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J281" t="s">
         <v>1720</v>
@@ -27890,7 +27905,7 @@
         <v>905</v>
       </c>
       <c r="I282" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J282" t="s">
         <v>1726</v>
@@ -27925,7 +27940,7 @@
         <v>905</v>
       </c>
       <c r="I283" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J283" t="s">
         <v>1732</v>
@@ -27960,7 +27975,7 @@
         <v>905</v>
       </c>
       <c r="I284" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J284" t="s">
         <v>1738</v>
@@ -27995,7 +28010,7 @@
         <v>905</v>
       </c>
       <c r="I285" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J285" t="s">
         <v>1744</v>
@@ -28030,7 +28045,7 @@
         <v>905</v>
       </c>
       <c r="I286" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J286" t="s">
         <v>1749</v>
@@ -28065,7 +28080,7 @@
         <v>905</v>
       </c>
       <c r="I287" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J287" t="s">
         <v>1755</v>
@@ -28100,7 +28115,7 @@
         <v>905</v>
       </c>
       <c r="I288" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J288" t="s">
         <v>1761</v>
@@ -28135,7 +28150,7 @@
         <v>905</v>
       </c>
       <c r="I289" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J289" t="s">
         <v>1767</v>
@@ -28170,7 +28185,7 @@
         <v>905</v>
       </c>
       <c r="I290" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J290" t="s">
         <v>1773</v>
@@ -28205,7 +28220,7 @@
         <v>905</v>
       </c>
       <c r="I291" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J291" t="s">
         <v>1779</v>
@@ -28240,7 +28255,7 @@
         <v>905</v>
       </c>
       <c r="I292" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J292" t="s">
         <v>1785</v>
@@ -28275,7 +28290,7 @@
         <v>905</v>
       </c>
       <c r="I293" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J293" t="s">
         <v>1791</v>
@@ -28310,7 +28325,7 @@
         <v>905</v>
       </c>
       <c r="I294" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J294" t="s">
         <v>1796</v>
@@ -28345,7 +28360,7 @@
         <v>905</v>
       </c>
       <c r="I295" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J295" t="s">
         <v>1802</v>
@@ -28380,7 +28395,7 @@
         <v>905</v>
       </c>
       <c r="I296" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J296" t="s">
         <v>1808</v>
@@ -28415,7 +28430,7 @@
         <v>905</v>
       </c>
       <c r="I297" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J297" t="s">
         <v>1814</v>
@@ -28450,7 +28465,7 @@
         <v>905</v>
       </c>
       <c r="I298" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J298" t="s">
         <v>1820</v>
@@ -28485,7 +28500,7 @@
         <v>905</v>
       </c>
       <c r="I299" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J299" t="s">
         <v>1826</v>
@@ -28520,7 +28535,7 @@
         <v>905</v>
       </c>
       <c r="I300" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J300" t="s">
         <v>1832</v>
@@ -28555,7 +28570,7 @@
         <v>905</v>
       </c>
       <c r="I301" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J301" t="s">
         <v>1838</v>
@@ -28590,7 +28605,7 @@
         <v>905</v>
       </c>
       <c r="I302" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J302" t="s">
         <v>1844</v>
@@ -28625,7 +28640,7 @@
         <v>905</v>
       </c>
       <c r="I303" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J303" t="s">
         <v>1850</v>
@@ -28660,7 +28675,7 @@
         <v>905</v>
       </c>
       <c r="I304" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J304" t="s">
         <v>1856</v>
@@ -28695,7 +28710,7 @@
         <v>905</v>
       </c>
       <c r="I305" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J305" t="s">
         <v>1862</v>
@@ -28730,7 +28745,7 @@
         <v>905</v>
       </c>
       <c r="I306" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J306" t="s">
         <v>1868</v>
@@ -28765,7 +28780,7 @@
         <v>905</v>
       </c>
       <c r="I307" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J307" t="s">
         <v>1874</v>
@@ -28800,7 +28815,7 @@
         <v>905</v>
       </c>
       <c r="I308" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J308" t="s">
         <v>1880</v>
@@ -28835,7 +28850,7 @@
         <v>905</v>
       </c>
       <c r="I309" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J309" t="s">
         <v>1886</v>
@@ -28870,7 +28885,7 @@
         <v>905</v>
       </c>
       <c r="I310" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J310" t="s">
         <v>1892</v>
@@ -28905,7 +28920,7 @@
         <v>905</v>
       </c>
       <c r="I311" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J311" t="s">
         <v>1898</v>
@@ -28940,7 +28955,7 @@
         <v>905</v>
       </c>
       <c r="I312" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J312" t="s">
         <v>1904</v>
@@ -28975,7 +28990,7 @@
         <v>905</v>
       </c>
       <c r="I313" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J313" t="s">
         <v>1910</v>
@@ -29010,7 +29025,7 @@
         <v>905</v>
       </c>
       <c r="I314" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J314" t="s">
         <v>1916</v>
@@ -29045,7 +29060,7 @@
         <v>905</v>
       </c>
       <c r="I315" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J315" t="s">
         <v>1922</v>
@@ -29080,7 +29095,7 @@
         <v>905</v>
       </c>
       <c r="I316" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J316" t="s">
         <v>1928</v>
@@ -29115,7 +29130,7 @@
         <v>905</v>
       </c>
       <c r="I317" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J317" t="s">
         <v>1934</v>
@@ -29150,7 +29165,7 @@
         <v>905</v>
       </c>
       <c r="I318" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J318" t="s">
         <v>1940</v>
@@ -29185,7 +29200,7 @@
         <v>905</v>
       </c>
       <c r="I319" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J319" t="s">
         <v>1946</v>
@@ -29220,7 +29235,7 @@
         <v>905</v>
       </c>
       <c r="I320" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J320" t="s">
         <v>1952</v>
@@ -29255,7 +29270,7 @@
         <v>905</v>
       </c>
       <c r="I321" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J321" t="s">
         <v>1958</v>
@@ -29290,7 +29305,7 @@
         <v>905</v>
       </c>
       <c r="I322" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J322" t="s">
         <v>1964</v>
@@ -29325,7 +29340,7 @@
         <v>905</v>
       </c>
       <c r="I323" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J323" t="s">
         <v>1970</v>
@@ -29360,7 +29375,7 @@
         <v>905</v>
       </c>
       <c r="I324" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J324" t="s">
         <v>1976</v>
@@ -29395,7 +29410,7 @@
         <v>905</v>
       </c>
       <c r="I325" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J325" t="s">
         <v>1982</v>
@@ -29430,7 +29445,7 @@
         <v>905</v>
       </c>
       <c r="I326" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J326" t="s">
         <v>1988</v>
@@ -29465,7 +29480,7 @@
         <v>905</v>
       </c>
       <c r="I327" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J327" t="s">
         <v>1993</v>
@@ -29500,7 +29515,7 @@
         <v>905</v>
       </c>
       <c r="I328" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J328" t="s">
         <v>1999</v>
@@ -29535,7 +29550,7 @@
         <v>905</v>
       </c>
       <c r="I329" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J329" t="s">
         <v>2005</v>
@@ -29570,7 +29585,7 @@
         <v>905</v>
       </c>
       <c r="I330" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J330" t="s">
         <v>2011</v>
@@ -29605,7 +29620,7 @@
         <v>905</v>
       </c>
       <c r="I331" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J331" t="s">
         <v>2017</v>
@@ -29640,7 +29655,7 @@
         <v>905</v>
       </c>
       <c r="I332" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J332" t="s">
         <v>2023</v>
@@ -29675,7 +29690,7 @@
         <v>905</v>
       </c>
       <c r="I333" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J333" t="s">
         <v>2029</v>
@@ -29710,7 +29725,7 @@
         <v>905</v>
       </c>
       <c r="I334" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J334" t="s">
         <v>2035</v>
@@ -29745,7 +29760,7 @@
         <v>905</v>
       </c>
       <c r="I335" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J335" t="s">
         <v>2040</v>
@@ -29780,7 +29795,7 @@
         <v>905</v>
       </c>
       <c r="I336" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J336" t="s">
         <v>2046</v>
@@ -29815,7 +29830,7 @@
         <v>905</v>
       </c>
       <c r="I337" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J337" t="s">
         <v>2051</v>
@@ -29850,7 +29865,7 @@
         <v>905</v>
       </c>
       <c r="I338" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J338" t="s">
         <v>2057</v>
@@ -29885,7 +29900,7 @@
         <v>905</v>
       </c>
       <c r="I339" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J339" t="s">
         <v>2063</v>
@@ -29920,7 +29935,7 @@
         <v>905</v>
       </c>
       <c r="I340" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J340" t="s">
         <v>2069</v>
@@ -29955,7 +29970,7 @@
         <v>905</v>
       </c>
       <c r="I341" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J341" t="s">
         <v>2075</v>
@@ -29990,7 +30005,7 @@
         <v>905</v>
       </c>
       <c r="I342" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J342" t="s">
         <v>2081</v>
@@ -30025,7 +30040,7 @@
         <v>905</v>
       </c>
       <c r="I343" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J343" t="s">
         <v>2087</v>
@@ -30060,7 +30075,7 @@
         <v>905</v>
       </c>
       <c r="I344" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J344" t="s">
         <v>2092</v>
@@ -30095,7 +30110,7 @@
         <v>905</v>
       </c>
       <c r="I345" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J345" t="s">
         <v>2098</v>
@@ -30130,7 +30145,7 @@
         <v>905</v>
       </c>
       <c r="I346" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J346" t="s">
         <v>2103</v>
@@ -30165,7 +30180,7 @@
         <v>905</v>
       </c>
       <c r="I347" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J347" t="s">
         <v>2109</v>
@@ -30200,7 +30215,7 @@
         <v>905</v>
       </c>
       <c r="I348" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J348" t="s">
         <v>2115</v>
@@ -30235,7 +30250,7 @@
         <v>905</v>
       </c>
       <c r="I349" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J349" t="s">
         <v>2121</v>
@@ -30270,7 +30285,7 @@
         <v>905</v>
       </c>
       <c r="I350" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J350" t="s">
         <v>2127</v>
@@ -30305,7 +30320,7 @@
         <v>905</v>
       </c>
       <c r="I351" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J351" t="s">
         <v>2132</v>
@@ -30340,7 +30355,7 @@
         <v>905</v>
       </c>
       <c r="I352" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J352" t="s">
         <v>2137</v>
@@ -30375,7 +30390,7 @@
         <v>905</v>
       </c>
       <c r="I353" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J353" t="s">
         <v>2143</v>
@@ -30410,7 +30425,7 @@
         <v>905</v>
       </c>
       <c r="I354" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J354" t="s">
         <v>2149</v>
@@ -30445,7 +30460,7 @@
         <v>905</v>
       </c>
       <c r="I355" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J355" t="s">
         <v>2155</v>
@@ -30480,7 +30495,7 @@
         <v>905</v>
       </c>
       <c r="I356" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J356" t="s">
         <v>2160</v>
@@ -30515,7 +30530,7 @@
         <v>905</v>
       </c>
       <c r="I357" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J357" t="s">
         <v>2166</v>
@@ -30550,7 +30565,7 @@
         <v>905</v>
       </c>
       <c r="I358" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J358" t="s">
         <v>2172</v>
@@ -30585,7 +30600,7 @@
         <v>905</v>
       </c>
       <c r="I359" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J359" t="s">
         <v>2178</v>
@@ -30620,7 +30635,7 @@
         <v>905</v>
       </c>
       <c r="I360" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J360" t="s">
         <v>2184</v>
@@ -30655,7 +30670,7 @@
         <v>905</v>
       </c>
       <c r="I361" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J361" t="s">
         <v>2190</v>
@@ -30690,7 +30705,7 @@
         <v>905</v>
       </c>
       <c r="I362" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J362" t="s">
         <v>2196</v>
@@ -30725,7 +30740,7 @@
         <v>905</v>
       </c>
       <c r="I363" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J363" t="s">
         <v>2201</v>
@@ -30760,7 +30775,7 @@
         <v>905</v>
       </c>
       <c r="I364" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J364" t="s">
         <v>2206</v>
@@ -30795,7 +30810,7 @@
         <v>905</v>
       </c>
       <c r="I365" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J365" t="s">
         <v>2211</v>
@@ -30830,7 +30845,7 @@
         <v>905</v>
       </c>
       <c r="I366" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J366" t="s">
         <v>2217</v>
@@ -30865,7 +30880,7 @@
         <v>905</v>
       </c>
       <c r="I367" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J367" t="s">
         <v>2222</v>
@@ -30900,7 +30915,7 @@
         <v>905</v>
       </c>
       <c r="I368" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J368" t="s">
         <v>2228</v>
@@ -30935,7 +30950,7 @@
         <v>905</v>
       </c>
       <c r="I369" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J369" t="s">
         <v>2234</v>
@@ -30970,7 +30985,7 @@
         <v>905</v>
       </c>
       <c r="I370" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J370" t="s">
         <v>2240</v>
@@ -31005,7 +31020,7 @@
         <v>905</v>
       </c>
       <c r="I371" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J371" t="s">
         <v>2246</v>
@@ -31040,7 +31055,7 @@
         <v>905</v>
       </c>
       <c r="I372" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J372" t="s">
         <v>2252</v>
@@ -31075,7 +31090,7 @@
         <v>905</v>
       </c>
       <c r="I373" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J373" t="s">
         <v>2258</v>
@@ -31110,7 +31125,7 @@
         <v>905</v>
       </c>
       <c r="I374" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J374" t="s">
         <v>2264</v>
@@ -31145,7 +31160,7 @@
         <v>905</v>
       </c>
       <c r="I375" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J375" t="s">
         <v>2270</v>
@@ -31180,7 +31195,7 @@
         <v>905</v>
       </c>
       <c r="I376" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J376" t="s">
         <v>2275</v>
@@ -31215,7 +31230,7 @@
         <v>905</v>
       </c>
       <c r="I377" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J377" t="s">
         <v>2281</v>
@@ -31250,7 +31265,7 @@
         <v>905</v>
       </c>
       <c r="I378" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J378" t="s">
         <v>2287</v>
@@ -31285,7 +31300,7 @@
         <v>905</v>
       </c>
       <c r="I379" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J379" t="s">
         <v>2293</v>
@@ -31320,7 +31335,7 @@
         <v>905</v>
       </c>
       <c r="I380" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J380" t="s">
         <v>2299</v>
@@ -31355,7 +31370,7 @@
         <v>905</v>
       </c>
       <c r="I381" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J381" t="s">
         <v>2304</v>
@@ -31390,7 +31405,7 @@
         <v>905</v>
       </c>
       <c r="I382" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J382" t="s">
         <v>2310</v>
@@ -31425,7 +31440,7 @@
         <v>905</v>
       </c>
       <c r="I383" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J383" t="s">
         <v>2315</v>
@@ -31460,7 +31475,7 @@
         <v>905</v>
       </c>
       <c r="I384" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J384" t="s">
         <v>2321</v>
@@ -31495,7 +31510,7 @@
         <v>905</v>
       </c>
       <c r="I385" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J385" t="s">
         <v>2327</v>
@@ -31530,7 +31545,7 @@
         <v>905</v>
       </c>
       <c r="I386" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J386" t="s">
         <v>2333</v>
@@ -31565,7 +31580,7 @@
         <v>905</v>
       </c>
       <c r="I387" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J387" t="s">
         <v>2339</v>
@@ -31600,7 +31615,7 @@
         <v>905</v>
       </c>
       <c r="I388" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J388" t="s">
         <v>2345</v>
@@ -31635,7 +31650,7 @@
         <v>905</v>
       </c>
       <c r="I389" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J389" t="s">
         <v>2351</v>
@@ -31670,7 +31685,7 @@
         <v>905</v>
       </c>
       <c r="I390" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J390" t="s">
         <v>2357</v>
@@ -31705,7 +31720,7 @@
         <v>905</v>
       </c>
       <c r="I391" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J391" t="s">
         <v>2363</v>
@@ -31740,7 +31755,7 @@
         <v>905</v>
       </c>
       <c r="I392" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J392" t="s">
         <v>2369</v>
@@ -31775,7 +31790,7 @@
         <v>905</v>
       </c>
       <c r="I393" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J393" t="s">
         <v>2375</v>
@@ -31810,7 +31825,7 @@
         <v>905</v>
       </c>
       <c r="I394" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J394" t="s">
         <v>2381</v>
@@ -31845,7 +31860,7 @@
         <v>905</v>
       </c>
       <c r="I395" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J395" t="s">
         <v>2387</v>
@@ -31880,7 +31895,7 @@
         <v>905</v>
       </c>
       <c r="I396" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J396" t="s">
         <v>2393</v>
@@ -31915,7 +31930,7 @@
         <v>905</v>
       </c>
       <c r="I397" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J397" t="s">
         <v>2399</v>
@@ -31950,7 +31965,7 @@
         <v>905</v>
       </c>
       <c r="I398" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J398" t="s">
         <v>2405</v>
@@ -31985,7 +32000,7 @@
         <v>905</v>
       </c>
       <c r="I399" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J399" t="s">
         <v>2411</v>
@@ -32020,7 +32035,7 @@
         <v>905</v>
       </c>
       <c r="I400" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J400" t="s">
         <v>2416</v>
@@ -32055,7 +32070,7 @@
         <v>905</v>
       </c>
       <c r="I401" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J401" t="s">
         <v>2422</v>
@@ -32090,7 +32105,7 @@
         <v>905</v>
       </c>
       <c r="I402" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J402" t="s">
         <v>2428</v>
@@ -32125,7 +32140,7 @@
         <v>905</v>
       </c>
       <c r="I403" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J403" t="s">
         <v>2433</v>
@@ -32160,7 +32175,7 @@
         <v>905</v>
       </c>
       <c r="I404" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J404" t="s">
         <v>2439</v>
@@ -32195,7 +32210,7 @@
         <v>905</v>
       </c>
       <c r="I405" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J405" t="s">
         <v>2444</v>
@@ -32230,7 +32245,7 @@
         <v>905</v>
       </c>
       <c r="I406" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J406" t="s">
         <v>2450</v>
@@ -32265,7 +32280,7 @@
         <v>905</v>
       </c>
       <c r="I407" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J407" t="s">
         <v>2455</v>
@@ -32300,7 +32315,7 @@
         <v>905</v>
       </c>
       <c r="I408" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J408" t="s">
         <v>2461</v>
@@ -32335,7 +32350,7 @@
         <v>905</v>
       </c>
       <c r="I409" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J409" t="s">
         <v>2467</v>
@@ -32370,7 +32385,7 @@
         <v>905</v>
       </c>
       <c r="I410" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J410" t="s">
         <v>2473</v>
@@ -32405,7 +32420,7 @@
         <v>905</v>
       </c>
       <c r="I411" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J411" t="s">
         <v>2479</v>
@@ -32440,7 +32455,7 @@
         <v>905</v>
       </c>
       <c r="I412" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J412" t="s">
         <v>2485</v>
@@ -32475,7 +32490,7 @@
         <v>905</v>
       </c>
       <c r="I413" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J413" t="s">
         <v>2491</v>
@@ -32510,7 +32525,7 @@
         <v>905</v>
       </c>
       <c r="I414" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J414" t="s">
         <v>2497</v>
@@ -32545,7 +32560,7 @@
         <v>905</v>
       </c>
       <c r="I415" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J415" t="s">
         <v>2504</v>
@@ -32580,7 +32595,7 @@
         <v>905</v>
       </c>
       <c r="I416" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J416" t="s">
         <v>2509</v>
@@ -32615,7 +32630,7 @@
         <v>905</v>
       </c>
       <c r="I417" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J417" t="s">
         <v>2515</v>
@@ -32650,7 +32665,7 @@
         <v>905</v>
       </c>
       <c r="I418" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J418" t="s">
         <v>2521</v>
@@ -32685,7 +32700,7 @@
         <v>905</v>
       </c>
       <c r="I419" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J419" t="s">
         <v>2527</v>
@@ -32720,7 +32735,7 @@
         <v>905</v>
       </c>
       <c r="I420" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J420" t="s">
         <v>2532</v>
@@ -32755,7 +32770,7 @@
         <v>905</v>
       </c>
       <c r="I421" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J421" t="s">
         <v>2538</v>
@@ -32790,7 +32805,7 @@
         <v>905</v>
       </c>
       <c r="I422" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J422" t="s">
         <v>2544</v>
@@ -32825,7 +32840,7 @@
         <v>905</v>
       </c>
       <c r="I423" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J423" t="s">
         <v>2550</v>
@@ -32860,7 +32875,7 @@
         <v>905</v>
       </c>
       <c r="I424" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J424" t="s">
         <v>2556</v>
@@ -32895,7 +32910,7 @@
         <v>905</v>
       </c>
       <c r="I425" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J425" t="s">
         <v>2562</v>
@@ -32930,7 +32945,7 @@
         <v>905</v>
       </c>
       <c r="I426" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J426" t="s">
         <v>2567</v>
@@ -32965,7 +32980,7 @@
         <v>905</v>
       </c>
       <c r="I427" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J427" t="s">
         <v>2573</v>
@@ -33000,7 +33015,7 @@
         <v>905</v>
       </c>
       <c r="I428" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J428" t="s">
         <v>2579</v>
@@ -33035,7 +33050,7 @@
         <v>905</v>
       </c>
       <c r="I429" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J429" t="s">
         <v>2585</v>
@@ -33070,7 +33085,7 @@
         <v>905</v>
       </c>
       <c r="I430" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J430" t="s">
         <v>2590</v>
@@ -33105,7 +33120,7 @@
         <v>905</v>
       </c>
       <c r="I431" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J431" t="s">
         <v>2596</v>
@@ -33140,7 +33155,7 @@
         <v>905</v>
       </c>
       <c r="I432" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J432" t="s">
         <v>2602</v>
@@ -33175,7 +33190,7 @@
         <v>905</v>
       </c>
       <c r="I433" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J433" t="s">
         <v>2608</v>
@@ -33210,7 +33225,7 @@
         <v>905</v>
       </c>
       <c r="I434" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J434" t="s">
         <v>2614</v>
@@ -33245,7 +33260,7 @@
         <v>905</v>
       </c>
       <c r="I435" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J435" t="s">
         <v>2620</v>
@@ -33280,7 +33295,7 @@
         <v>905</v>
       </c>
       <c r="I436" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J436" t="s">
         <v>2625</v>
@@ -33315,7 +33330,7 @@
         <v>905</v>
       </c>
       <c r="I437" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J437" t="s">
         <v>2631</v>
@@ -33350,7 +33365,7 @@
         <v>905</v>
       </c>
       <c r="I438" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J438" t="s">
         <v>2637</v>
@@ -33385,7 +33400,7 @@
         <v>905</v>
       </c>
       <c r="I439" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J439" t="s">
         <v>2643</v>
@@ -33420,7 +33435,7 @@
         <v>905</v>
       </c>
       <c r="I440" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J440" t="s">
         <v>2649</v>
@@ -33455,7 +33470,7 @@
         <v>905</v>
       </c>
       <c r="I441" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J441" t="s">
         <v>2655</v>
@@ -33490,7 +33505,7 @@
         <v>905</v>
       </c>
       <c r="I442" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J442" t="s">
         <v>2661</v>
@@ -33525,7 +33540,7 @@
         <v>905</v>
       </c>
       <c r="I443" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J443" t="s">
         <v>2667</v>
@@ -33560,7 +33575,7 @@
         <v>905</v>
       </c>
       <c r="I444" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J444" t="s">
         <v>2672</v>
@@ -33595,7 +33610,7 @@
         <v>905</v>
       </c>
       <c r="I445" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J445" t="s">
         <v>2678</v>
@@ -33630,7 +33645,7 @@
         <v>905</v>
       </c>
       <c r="I446" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J446" t="s">
         <v>2684</v>
@@ -33665,7 +33680,7 @@
         <v>905</v>
       </c>
       <c r="I447" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J447" t="s">
         <v>2690</v>
@@ -33700,7 +33715,7 @@
         <v>905</v>
       </c>
       <c r="I448" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J448" t="s">
         <v>2696</v>
@@ -33735,7 +33750,7 @@
         <v>905</v>
       </c>
       <c r="I449" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J449" t="s">
         <v>2701</v>
@@ -33770,7 +33785,7 @@
         <v>905</v>
       </c>
       <c r="I450" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J450" t="s">
         <v>2707</v>
@@ -33805,7 +33820,7 @@
         <v>905</v>
       </c>
       <c r="I451" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J451" t="s">
         <v>2713</v>
@@ -33840,7 +33855,7 @@
         <v>905</v>
       </c>
       <c r="I452" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J452" t="s">
         <v>2719</v>
@@ -33875,7 +33890,7 @@
         <v>905</v>
       </c>
       <c r="I453" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J453" t="s">
         <v>2724</v>
@@ -33910,7 +33925,7 @@
         <v>905</v>
       </c>
       <c r="I454" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J454" t="s">
         <v>2729</v>
@@ -33945,7 +33960,7 @@
         <v>905</v>
       </c>
       <c r="I455" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J455" t="s">
         <v>2735</v>
@@ -33980,7 +33995,7 @@
         <v>905</v>
       </c>
       <c r="I456" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J456" t="s">
         <v>2741</v>
@@ -34015,7 +34030,7 @@
         <v>905</v>
       </c>
       <c r="I457" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J457" t="s">
         <v>2747</v>
@@ -34050,7 +34065,7 @@
         <v>905</v>
       </c>
       <c r="I458" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J458" t="s">
         <v>2753</v>
@@ -34085,7 +34100,7 @@
         <v>905</v>
       </c>
       <c r="I459" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J459" t="s">
         <v>2759</v>
@@ -34120,7 +34135,7 @@
         <v>905</v>
       </c>
       <c r="I460" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J460" t="s">
         <v>2765</v>
@@ -34155,7 +34170,7 @@
         <v>905</v>
       </c>
       <c r="I461" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J461" t="s">
         <v>2770</v>
@@ -34190,7 +34205,7 @@
         <v>905</v>
       </c>
       <c r="I462" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J462" t="s">
         <v>2775</v>
@@ -34225,7 +34240,7 @@
         <v>905</v>
       </c>
       <c r="I463" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J463" t="s">
         <v>2781</v>
@@ -34260,7 +34275,7 @@
         <v>905</v>
       </c>
       <c r="I464" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J464" t="s">
         <v>2786</v>
@@ -34295,7 +34310,7 @@
         <v>905</v>
       </c>
       <c r="I465" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J465" t="s">
         <v>2792</v>
@@ -34330,7 +34345,7 @@
         <v>905</v>
       </c>
       <c r="I466" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J466" t="s">
         <v>2798</v>
@@ -34365,7 +34380,7 @@
         <v>905</v>
       </c>
       <c r="I467" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J467" t="s">
         <v>2804</v>
@@ -34400,7 +34415,7 @@
         <v>905</v>
       </c>
       <c r="I468" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J468" t="s">
         <v>2810</v>
@@ -34435,7 +34450,7 @@
         <v>905</v>
       </c>
       <c r="I469" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J469" t="s">
         <v>2816</v>
@@ -34470,7 +34485,7 @@
         <v>905</v>
       </c>
       <c r="I470" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J470" t="s">
         <v>2822</v>
@@ -34505,7 +34520,7 @@
         <v>905</v>
       </c>
       <c r="I471" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J471" t="s">
         <v>2828</v>
@@ -34540,7 +34555,7 @@
         <v>905</v>
       </c>
       <c r="I472" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J472" t="s">
         <v>2834</v>
@@ -34575,7 +34590,7 @@
         <v>905</v>
       </c>
       <c r="I473" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J473" t="s">
         <v>2840</v>
@@ -34610,7 +34625,7 @@
         <v>905</v>
       </c>
       <c r="I474" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J474" t="s">
         <v>2845</v>
@@ -34645,7 +34660,7 @@
         <v>905</v>
       </c>
       <c r="I475" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J475" t="s">
         <v>2851</v>
@@ -34680,7 +34695,7 @@
         <v>905</v>
       </c>
       <c r="I476" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J476" t="s">
         <v>2857</v>
@@ -34715,7 +34730,7 @@
         <v>905</v>
       </c>
       <c r="I477" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J477" t="s">
         <v>2863</v>
@@ -34750,7 +34765,7 @@
         <v>905</v>
       </c>
       <c r="I478" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J478" t="s">
         <v>2869</v>
@@ -34785,7 +34800,7 @@
         <v>905</v>
       </c>
       <c r="I479" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J479" t="s">
         <v>2875</v>
@@ -34820,7 +34835,7 @@
         <v>905</v>
       </c>
       <c r="I480" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J480" t="s">
         <v>2881</v>
@@ -34855,7 +34870,7 @@
         <v>905</v>
       </c>
       <c r="I481" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J481" t="s">
         <v>2887</v>
@@ -34890,7 +34905,7 @@
         <v>905</v>
       </c>
       <c r="I482" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J482" t="s">
         <v>2893</v>
@@ -34925,7 +34940,7 @@
         <v>905</v>
       </c>
       <c r="I483" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J483" t="s">
         <v>2899</v>
@@ -34960,7 +34975,7 @@
         <v>905</v>
       </c>
       <c r="I484" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J484" t="s">
         <v>2905</v>
@@ -34995,7 +35010,7 @@
         <v>905</v>
       </c>
       <c r="I485" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J485" t="s">
         <v>2911</v>
@@ -35030,7 +35045,7 @@
         <v>905</v>
       </c>
       <c r="I486" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J486" t="s">
         <v>2917</v>
@@ -35065,7 +35080,7 @@
         <v>905</v>
       </c>
       <c r="I487" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J487" t="s">
         <v>2923</v>
@@ -35100,7 +35115,7 @@
         <v>905</v>
       </c>
       <c r="I488" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J488" t="s">
         <v>2929</v>
@@ -35135,7 +35150,7 @@
         <v>905</v>
       </c>
       <c r="I489" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J489" t="s">
         <v>2935</v>
@@ -35170,7 +35185,7 @@
         <v>905</v>
       </c>
       <c r="I490" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J490" t="s">
         <v>2941</v>
@@ -35205,7 +35220,7 @@
         <v>905</v>
       </c>
       <c r="I491" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J491" t="s">
         <v>2947</v>
@@ -35240,7 +35255,7 @@
         <v>905</v>
       </c>
       <c r="I492" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J492" t="s">
         <v>2953</v>
@@ -35275,7 +35290,7 @@
         <v>905</v>
       </c>
       <c r="I493" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J493" t="s">
         <v>2959</v>
@@ -35310,7 +35325,7 @@
         <v>905</v>
       </c>
       <c r="I494" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J494" t="s">
         <v>2965</v>
@@ -35345,7 +35360,7 @@
         <v>905</v>
       </c>
       <c r="I495" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J495" t="s">
         <v>2971</v>
@@ -35380,7 +35395,7 @@
         <v>905</v>
       </c>
       <c r="I496" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J496" t="s">
         <v>2977</v>
@@ -35415,7 +35430,7 @@
         <v>905</v>
       </c>
       <c r="I497" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J497" t="s">
         <v>2982</v>
@@ -35450,7 +35465,7 @@
         <v>905</v>
       </c>
       <c r="I498" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J498" t="s">
         <v>2988</v>
@@ -35485,7 +35500,7 @@
         <v>905</v>
       </c>
       <c r="I499" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J499" t="s">
         <v>2994</v>
@@ -35520,7 +35535,7 @@
         <v>905</v>
       </c>
       <c r="I500" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J500" t="s">
         <v>3000</v>
@@ -35555,7 +35570,7 @@
         <v>905</v>
       </c>
       <c r="I501" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J501" t="s">
         <v>3006</v>
@@ -35590,7 +35605,7 @@
         <v>905</v>
       </c>
       <c r="I502" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J502" t="s">
         <v>3012</v>
@@ -35625,7 +35640,7 @@
         <v>905</v>
       </c>
       <c r="I503" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J503" t="s">
         <v>3018</v>
@@ -35660,7 +35675,7 @@
         <v>905</v>
       </c>
       <c r="I504" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J504" t="s">
         <v>3024</v>
@@ -35695,7 +35710,7 @@
         <v>905</v>
       </c>
       <c r="I505" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J505" t="s">
         <v>3029</v>
@@ -35730,7 +35745,7 @@
         <v>905</v>
       </c>
       <c r="I506" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J506" t="s">
         <v>3035</v>
@@ -35765,7 +35780,7 @@
         <v>905</v>
       </c>
       <c r="I507" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J507" t="s">
         <v>3041</v>
@@ -35800,7 +35815,7 @@
         <v>905</v>
       </c>
       <c r="I508" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J508" t="s">
         <v>3047</v>
@@ -35835,7 +35850,7 @@
         <v>905</v>
       </c>
       <c r="I509" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J509" t="s">
         <v>3054</v>
@@ -35870,7 +35885,7 @@
         <v>905</v>
       </c>
       <c r="I510" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J510" t="s">
         <v>3060</v>
@@ -35905,7 +35920,7 @@
         <v>905</v>
       </c>
       <c r="I511" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J511" t="s">
         <v>3066</v>
@@ -35940,7 +35955,7 @@
         <v>905</v>
       </c>
       <c r="I512" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J512" t="s">
         <v>3072</v>
@@ -35975,7 +35990,7 @@
         <v>905</v>
       </c>
       <c r="I513" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J513" t="s">
         <v>3078</v>
@@ -36010,7 +36025,7 @@
         <v>905</v>
       </c>
       <c r="I514" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J514" t="s">
         <v>3084</v>
@@ -36045,7 +36060,7 @@
         <v>905</v>
       </c>
       <c r="I515" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J515" t="s">
         <v>3090</v>
@@ -36080,7 +36095,7 @@
         <v>905</v>
       </c>
       <c r="I516" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J516" t="s">
         <v>3096</v>
@@ -36115,7 +36130,7 @@
         <v>905</v>
       </c>
       <c r="I517" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J517" t="s">
         <v>3102</v>
@@ -36150,7 +36165,7 @@
         <v>905</v>
       </c>
       <c r="I518" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J518" t="s">
         <v>3107</v>
@@ -36185,7 +36200,7 @@
         <v>905</v>
       </c>
       <c r="I519" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J519" t="s">
         <v>3113</v>
@@ -36220,7 +36235,7 @@
         <v>905</v>
       </c>
       <c r="I520" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J520" t="s">
         <v>3119</v>
@@ -36255,7 +36270,7 @@
         <v>905</v>
       </c>
       <c r="I521" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J521" t="s">
         <v>3125</v>
@@ -36290,7 +36305,7 @@
         <v>905</v>
       </c>
       <c r="I522" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J522" t="s">
         <v>3131</v>
@@ -36325,7 +36340,7 @@
         <v>905</v>
       </c>
       <c r="I523" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J523" t="s">
         <v>3136</v>
@@ -36360,7 +36375,7 @@
         <v>905</v>
       </c>
       <c r="I524" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J524" t="s">
         <v>3142</v>
@@ -36395,7 +36410,7 @@
         <v>905</v>
       </c>
       <c r="I525" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J525" t="s">
         <v>3148</v>
@@ -36430,7 +36445,7 @@
         <v>905</v>
       </c>
       <c r="I526" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J526" t="s">
         <v>3154</v>
@@ -36465,7 +36480,7 @@
         <v>905</v>
       </c>
       <c r="I527" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J527" t="s">
         <v>3160</v>
@@ -36500,7 +36515,7 @@
         <v>905</v>
       </c>
       <c r="I528" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J528" t="s">
         <v>3166</v>
@@ -36535,7 +36550,7 @@
         <v>905</v>
       </c>
       <c r="I529" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J529" t="s">
         <v>3172</v>
@@ -36570,7 +36585,7 @@
         <v>905</v>
       </c>
       <c r="I530" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J530" t="s">
         <v>3178</v>
@@ -36605,7 +36620,7 @@
         <v>905</v>
       </c>
       <c r="I531" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J531" t="s">
         <v>3184</v>
@@ -36640,7 +36655,7 @@
         <v>905</v>
       </c>
       <c r="I532" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J532" t="s">
         <v>3190</v>
@@ -36675,7 +36690,7 @@
         <v>905</v>
       </c>
       <c r="I533" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J533" t="s">
         <v>3196</v>
@@ -36710,7 +36725,7 @@
         <v>905</v>
       </c>
       <c r="I534" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J534" t="s">
         <v>3202</v>
@@ -36745,7 +36760,7 @@
         <v>905</v>
       </c>
       <c r="I535" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J535" t="s">
         <v>3207</v>
@@ -36780,7 +36795,7 @@
         <v>905</v>
       </c>
       <c r="I536" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J536" t="s">
         <v>3213</v>
@@ -36815,7 +36830,7 @@
         <v>905</v>
       </c>
       <c r="I537" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J537" t="s">
         <v>3219</v>
@@ -36850,7 +36865,7 @@
         <v>905</v>
       </c>
       <c r="I538" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J538" t="s">
         <v>3225</v>
@@ -36885,7 +36900,7 @@
         <v>905</v>
       </c>
       <c r="I539" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J539" t="s">
         <v>3230</v>
@@ -36920,7 +36935,7 @@
         <v>905</v>
       </c>
       <c r="I540" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J540" t="s">
         <v>3235</v>
@@ -36955,7 +36970,7 @@
         <v>905</v>
       </c>
       <c r="I541" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J541" t="s">
         <v>3241</v>
@@ -36990,7 +37005,7 @@
         <v>905</v>
       </c>
       <c r="I542" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J542" t="s">
         <v>3246</v>
@@ -37025,7 +37040,7 @@
         <v>905</v>
       </c>
       <c r="I543" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J543" t="s">
         <v>3252</v>
@@ -37060,7 +37075,7 @@
         <v>905</v>
       </c>
       <c r="I544" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J544" t="s">
         <v>3257</v>
@@ -37095,7 +37110,7 @@
         <v>905</v>
       </c>
       <c r="I545" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J545" t="s">
         <v>3263</v>
@@ -37130,7 +37145,7 @@
         <v>905</v>
       </c>
       <c r="I546" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J546" t="s">
         <v>3269</v>
@@ -37165,7 +37180,7 @@
         <v>905</v>
       </c>
       <c r="I547" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J547" t="s">
         <v>3274</v>
@@ -37200,7 +37215,7 @@
         <v>905</v>
       </c>
       <c r="I548" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J548" t="s">
         <v>3280</v>
@@ -37235,7 +37250,7 @@
         <v>905</v>
       </c>
       <c r="I549" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J549" t="s">
         <v>3286</v>
@@ -37270,7 +37285,7 @@
         <v>905</v>
       </c>
       <c r="I550" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J550" t="s">
         <v>3292</v>
@@ -37305,7 +37320,7 @@
         <v>905</v>
       </c>
       <c r="I551" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J551" t="s">
         <v>3298</v>
@@ -37340,7 +37355,7 @@
         <v>905</v>
       </c>
       <c r="I552" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J552" t="s">
         <v>3304</v>
@@ -37375,7 +37390,7 @@
         <v>905</v>
       </c>
       <c r="I553" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J553" t="s">
         <v>3310</v>
@@ -37410,7 +37425,7 @@
         <v>905</v>
       </c>
       <c r="I554" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J554" t="s">
         <v>3316</v>
@@ -37445,7 +37460,7 @@
         <v>905</v>
       </c>
       <c r="I555" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J555" t="s">
         <v>3322</v>
@@ -37480,7 +37495,7 @@
         <v>905</v>
       </c>
       <c r="I556" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J556" t="s">
         <v>3328</v>
@@ -37515,7 +37530,7 @@
         <v>905</v>
       </c>
       <c r="I557" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J557" t="s">
         <v>3334</v>
@@ -37550,7 +37565,7 @@
         <v>905</v>
       </c>
       <c r="I558" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J558" t="s">
         <v>3340</v>
@@ -37585,7 +37600,7 @@
         <v>905</v>
       </c>
       <c r="I559" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J559" t="s">
         <v>3346</v>
@@ -37620,7 +37635,7 @@
         <v>905</v>
       </c>
       <c r="I560" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J560" t="s">
         <v>3352</v>
@@ -37655,7 +37670,7 @@
         <v>905</v>
       </c>
       <c r="I561" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J561" t="s">
         <v>3358</v>
@@ -37690,7 +37705,7 @@
         <v>905</v>
       </c>
       <c r="I562" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J562" t="s">
         <v>3364</v>
@@ -37725,7 +37740,7 @@
         <v>905</v>
       </c>
       <c r="I563" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J563" t="s">
         <v>3369</v>
@@ -37760,7 +37775,7 @@
         <v>905</v>
       </c>
       <c r="I564" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J564" t="s">
         <v>3374</v>
@@ -37795,7 +37810,7 @@
         <v>905</v>
       </c>
       <c r="I565" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J565" t="s">
         <v>3380</v>
@@ -37830,7 +37845,7 @@
         <v>905</v>
       </c>
       <c r="I566" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J566" t="s">
         <v>3386</v>
@@ -37865,7 +37880,7 @@
         <v>905</v>
       </c>
       <c r="I567" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J567" t="s">
         <v>3392</v>
@@ -37900,7 +37915,7 @@
         <v>905</v>
       </c>
       <c r="I568" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J568" t="s">
         <v>3398</v>
@@ -37935,7 +37950,7 @@
         <v>905</v>
       </c>
       <c r="I569" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J569" t="s">
         <v>3404</v>
@@ -37970,7 +37985,7 @@
         <v>905</v>
       </c>
       <c r="I570" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J570" t="s">
         <v>3410</v>
@@ -38005,7 +38020,7 @@
         <v>905</v>
       </c>
       <c r="I571" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J571" t="s">
         <v>3416</v>
@@ -38040,7 +38055,7 @@
         <v>905</v>
       </c>
       <c r="I572" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J572" t="s">
         <v>3422</v>
@@ -38075,7 +38090,7 @@
         <v>905</v>
       </c>
       <c r="I573" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J573" t="s">
         <v>3428</v>
@@ -38110,7 +38125,7 @@
         <v>905</v>
       </c>
       <c r="I574" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J574" t="s">
         <v>3434</v>
@@ -38145,7 +38160,7 @@
         <v>905</v>
       </c>
       <c r="I575" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J575" t="s">
         <v>3440</v>
@@ -38180,7 +38195,7 @@
         <v>905</v>
       </c>
       <c r="I576" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J576" t="s">
         <v>3446</v>
@@ -38215,7 +38230,7 @@
         <v>905</v>
       </c>
       <c r="I577" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J577" t="s">
         <v>3451</v>
@@ -38250,7 +38265,7 @@
         <v>905</v>
       </c>
       <c r="I578" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J578" t="s">
         <v>3457</v>
@@ -38285,7 +38300,7 @@
         <v>905</v>
       </c>
       <c r="I579" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J579" t="s">
         <v>3463</v>
@@ -38320,7 +38335,7 @@
         <v>905</v>
       </c>
       <c r="I580" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J580" t="s">
         <v>3469</v>
@@ -38355,7 +38370,7 @@
         <v>905</v>
       </c>
       <c r="I581" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J581" t="s">
         <v>3475</v>
@@ -38390,7 +38405,7 @@
         <v>905</v>
       </c>
       <c r="I582" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J582" t="s">
         <v>3481</v>
@@ -38425,7 +38440,7 @@
         <v>905</v>
       </c>
       <c r="I583" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J583" t="s">
         <v>3487</v>
@@ -38460,7 +38475,7 @@
         <v>905</v>
       </c>
       <c r="I584" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J584" t="s">
         <v>3493</v>
@@ -38495,7 +38510,7 @@
         <v>905</v>
       </c>
       <c r="I585" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J585" t="s">
         <v>3499</v>
@@ -38530,7 +38545,7 @@
         <v>905</v>
       </c>
       <c r="I586" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J586" t="s">
         <v>3505</v>
@@ -38565,7 +38580,7 @@
         <v>905</v>
       </c>
       <c r="I587" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J587" t="s">
         <v>3511</v>
@@ -38600,7 +38615,7 @@
         <v>905</v>
       </c>
       <c r="I588" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J588" t="s">
         <v>3516</v>
@@ -38635,7 +38650,7 @@
         <v>905</v>
       </c>
       <c r="I589" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J589" t="s">
         <v>3522</v>
@@ -38670,7 +38685,7 @@
         <v>905</v>
       </c>
       <c r="I590" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J590" t="s">
         <v>3527</v>
@@ -38705,7 +38720,7 @@
         <v>905</v>
       </c>
       <c r="I591" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J591" t="s">
         <v>3533</v>
@@ -38740,7 +38755,7 @@
         <v>905</v>
       </c>
       <c r="I592" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J592" t="s">
         <v>3539</v>
@@ -38775,7 +38790,7 @@
         <v>905</v>
       </c>
       <c r="I593" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J593" t="s">
         <v>3545</v>
@@ -38810,7 +38825,7 @@
         <v>905</v>
       </c>
       <c r="I594" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J594" t="s">
         <v>3551</v>
@@ -38845,7 +38860,7 @@
         <v>905</v>
       </c>
       <c r="I595" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J595" t="s">
         <v>3557</v>
@@ -38880,7 +38895,7 @@
         <v>905</v>
       </c>
       <c r="I596" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J596" t="s">
         <v>3563</v>
@@ -38915,7 +38930,7 @@
         <v>905</v>
       </c>
       <c r="I597" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J597" t="s">
         <v>3569</v>
@@ -38950,7 +38965,7 @@
         <v>905</v>
       </c>
       <c r="I598" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J598" t="s">
         <v>3575</v>
@@ -38985,7 +39000,7 @@
         <v>905</v>
       </c>
       <c r="I599" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J599" t="s">
         <v>3581</v>
@@ -39020,7 +39035,7 @@
         <v>905</v>
       </c>
       <c r="I600" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J600" t="s">
         <v>3588</v>
@@ -39055,7 +39070,7 @@
         <v>905</v>
       </c>
       <c r="I601" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J601" t="s">
         <v>3594</v>
@@ -39090,7 +39105,7 @@
         <v>905</v>
       </c>
       <c r="I602" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J602" t="s">
         <v>3600</v>
@@ -39125,7 +39140,7 @@
         <v>905</v>
       </c>
       <c r="I603" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J603" t="s">
         <v>3606</v>
@@ -39160,7 +39175,7 @@
         <v>905</v>
       </c>
       <c r="I604" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J604" t="s">
         <v>3612</v>
@@ -39195,7 +39210,7 @@
         <v>905</v>
       </c>
       <c r="I605" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J605" t="s">
         <v>3618</v>
@@ -39230,7 +39245,7 @@
         <v>905</v>
       </c>
       <c r="I606" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J606" t="s">
         <v>3624</v>
@@ -39265,7 +39280,7 @@
         <v>905</v>
       </c>
       <c r="I607" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J607" t="s">
         <v>3630</v>
@@ -39300,7 +39315,7 @@
         <v>905</v>
       </c>
       <c r="I608" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J608" t="s">
         <v>3636</v>
@@ -39335,7 +39350,7 @@
         <v>905</v>
       </c>
       <c r="I609" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J609" t="s">
         <v>3642</v>
@@ -39370,7 +39385,7 @@
         <v>905</v>
       </c>
       <c r="I610" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J610" t="s">
         <v>3647</v>
@@ -39405,7 +39420,7 @@
         <v>905</v>
       </c>
       <c r="I611" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J611" t="s">
         <v>3653</v>
@@ -39440,7 +39455,7 @@
         <v>905</v>
       </c>
       <c r="I612" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J612" t="s">
         <v>3659</v>
@@ -39475,7 +39490,7 @@
         <v>905</v>
       </c>
       <c r="I613" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J613" t="s">
         <v>3665</v>
@@ -39510,7 +39525,7 @@
         <v>905</v>
       </c>
       <c r="I614" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J614" t="s">
         <v>3671</v>
@@ -39545,7 +39560,7 @@
         <v>905</v>
       </c>
       <c r="I615" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J615" t="s">
         <v>3677</v>
@@ -39580,7 +39595,7 @@
         <v>905</v>
       </c>
       <c r="I616" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J616" t="s">
         <v>3683</v>
@@ -39615,7 +39630,7 @@
         <v>905</v>
       </c>
       <c r="I617" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J617" t="s">
         <v>3689</v>
@@ -39650,7 +39665,7 @@
         <v>905</v>
       </c>
       <c r="I618" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J618" t="s">
         <v>3695</v>
@@ -39685,7 +39700,7 @@
         <v>905</v>
       </c>
       <c r="I619" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J619" t="s">
         <v>3700</v>
@@ -39720,7 +39735,7 @@
         <v>905</v>
       </c>
       <c r="I620" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J620" t="s">
         <v>3705</v>
@@ -39755,7 +39770,7 @@
         <v>905</v>
       </c>
       <c r="I621" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J621" t="s">
         <v>3711</v>
@@ -39790,7 +39805,7 @@
         <v>905</v>
       </c>
       <c r="I622" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J622" t="s">
         <v>3717</v>
@@ -39825,7 +39840,7 @@
         <v>905</v>
       </c>
       <c r="I623" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J623" t="s">
         <v>3723</v>
@@ -39860,7 +39875,7 @@
         <v>905</v>
       </c>
       <c r="I624" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J624" t="s">
         <v>3729</v>
@@ -39895,7 +39910,7 @@
         <v>905</v>
       </c>
       <c r="I625" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J625" t="s">
         <v>3735</v>
@@ -39930,7 +39945,7 @@
         <v>905</v>
       </c>
       <c r="I626" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J626" t="s">
         <v>3740</v>
@@ -39965,7 +39980,7 @@
         <v>905</v>
       </c>
       <c r="I627" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J627" t="s">
         <v>3746</v>
@@ -40000,7 +40015,7 @@
         <v>905</v>
       </c>
       <c r="I628" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J628" t="s">
         <v>3752</v>
@@ -40035,7 +40050,7 @@
         <v>905</v>
       </c>
       <c r="I629" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J629" t="s">
         <v>3758</v>
@@ -40070,7 +40085,7 @@
         <v>905</v>
       </c>
       <c r="I630" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J630" t="s">
         <v>3764</v>
@@ -40105,7 +40120,7 @@
         <v>905</v>
       </c>
       <c r="I631" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J631" t="s">
         <v>3770</v>
@@ -40140,7 +40155,7 @@
         <v>905</v>
       </c>
       <c r="I632" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J632" t="s">
         <v>3776</v>
@@ -40175,7 +40190,7 @@
         <v>905</v>
       </c>
       <c r="I633" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J633" t="s">
         <v>3782</v>
@@ -40210,7 +40225,7 @@
         <v>905</v>
       </c>
       <c r="I634" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J634" t="s">
         <v>3788</v>
@@ -40245,7 +40260,7 @@
         <v>905</v>
       </c>
       <c r="I635" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J635" t="s">
         <v>3794</v>
@@ -40280,7 +40295,7 @@
         <v>905</v>
       </c>
       <c r="I636" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J636" t="s">
         <v>3798</v>
@@ -40315,7 +40330,7 @@
         <v>905</v>
       </c>
       <c r="I637" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J637" t="s">
         <v>3804</v>
@@ -40350,7 +40365,7 @@
         <v>905</v>
       </c>
       <c r="I638" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J638" t="s">
         <v>3809</v>
@@ -40385,7 +40400,7 @@
         <v>905</v>
       </c>
       <c r="I639" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J639" t="s">
         <v>3814</v>
@@ -40420,7 +40435,7 @@
         <v>905</v>
       </c>
       <c r="I640" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J640" t="s">
         <v>3820</v>
@@ -40455,7 +40470,7 @@
         <v>905</v>
       </c>
       <c r="I641" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J641" t="s">
         <v>3825</v>
@@ -40490,7 +40505,7 @@
         <v>905</v>
       </c>
       <c r="I642" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J642" t="s">
         <v>3831</v>
@@ -40525,7 +40540,7 @@
         <v>905</v>
       </c>
       <c r="I643" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J643" t="s">
         <v>3837</v>
@@ -40560,7 +40575,7 @@
         <v>905</v>
       </c>
       <c r="I644" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J644" t="s">
         <v>3842</v>
@@ -40595,7 +40610,7 @@
         <v>905</v>
       </c>
       <c r="I645" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J645" t="s">
         <v>3848</v>
@@ -40630,7 +40645,7 @@
         <v>905</v>
       </c>
       <c r="I646" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J646" t="s">
         <v>3854</v>
@@ -40665,7 +40680,7 @@
         <v>905</v>
       </c>
       <c r="I647" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J647" t="s">
         <v>3860</v>
@@ -40700,7 +40715,7 @@
         <v>905</v>
       </c>
       <c r="I648" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J648" t="s">
         <v>3866</v>
@@ -40735,7 +40750,7 @@
         <v>905</v>
       </c>
       <c r="I649" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J649" t="s">
         <v>3872</v>
@@ -40770,7 +40785,7 @@
         <v>905</v>
       </c>
       <c r="I650" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J650" t="s">
         <v>3878</v>
@@ -40805,7 +40820,7 @@
         <v>905</v>
       </c>
       <c r="I651" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J651" t="s">
         <v>3884</v>
@@ -40840,7 +40855,7 @@
         <v>905</v>
       </c>
       <c r="I652" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J652" t="s">
         <v>3890</v>
@@ -40875,7 +40890,7 @@
         <v>905</v>
       </c>
       <c r="I653" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J653" t="s">
         <v>3896</v>
@@ -40910,7 +40925,7 @@
         <v>905</v>
       </c>
       <c r="I654" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J654" t="s">
         <v>3901</v>
@@ -40945,7 +40960,7 @@
         <v>905</v>
       </c>
       <c r="I655" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J655" t="s">
         <v>3907</v>
@@ -40980,7 +40995,7 @@
         <v>905</v>
       </c>
       <c r="I656" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J656" t="s">
         <v>3911</v>
@@ -41015,7 +41030,7 @@
         <v>905</v>
       </c>
       <c r="I657" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J657" t="s">
         <v>3917</v>
@@ -41050,7 +41065,7 @@
         <v>905</v>
       </c>
       <c r="I658" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J658" t="s">
         <v>3923</v>
@@ -41085,7 +41100,7 @@
         <v>905</v>
       </c>
       <c r="I659" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J659" t="s">
         <v>3929</v>
@@ -41120,7 +41135,7 @@
         <v>905</v>
       </c>
       <c r="I660" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J660" t="s">
         <v>3935</v>
@@ -41155,7 +41170,7 @@
         <v>905</v>
       </c>
       <c r="I661" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J661" t="s">
         <v>3941</v>
@@ -41190,7 +41205,7 @@
         <v>905</v>
       </c>
       <c r="I662" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J662" t="s">
         <v>3946</v>
@@ -41225,7 +41240,7 @@
         <v>905</v>
       </c>
       <c r="I663" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J663" t="s">
         <v>3952</v>
@@ -41260,7 +41275,7 @@
         <v>905</v>
       </c>
       <c r="I664" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J664" t="s">
         <v>3958</v>
@@ -41295,7 +41310,7 @@
         <v>905</v>
       </c>
       <c r="I665" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J665" t="s">
         <v>3964</v>
@@ -41330,7 +41345,7 @@
         <v>905</v>
       </c>
       <c r="I666" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J666" t="s">
         <v>3970</v>
@@ -41365,7 +41380,7 @@
         <v>905</v>
       </c>
       <c r="I667" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J667" t="s">
         <v>3975</v>
@@ -41400,7 +41415,7 @@
         <v>905</v>
       </c>
       <c r="I668" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J668" t="s">
         <v>3981</v>
@@ -41435,7 +41450,7 @@
         <v>905</v>
       </c>
       <c r="I669" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J669" t="s">
         <v>3987</v>
@@ -41470,7 +41485,7 @@
         <v>905</v>
       </c>
       <c r="I670" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J670" t="s">
         <v>3993</v>
@@ -41505,7 +41520,7 @@
         <v>905</v>
       </c>
       <c r="I671" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J671" t="s">
         <v>3999</v>
@@ -41540,7 +41555,7 @@
         <v>905</v>
       </c>
       <c r="I672" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J672" t="s">
         <v>4005</v>
@@ -41575,7 +41590,7 @@
         <v>905</v>
       </c>
       <c r="I673" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J673" t="s">
         <v>4011</v>
@@ -41610,7 +41625,7 @@
         <v>905</v>
       </c>
       <c r="I674" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J674" t="s">
         <v>4017</v>
@@ -41645,7 +41660,7 @@
         <v>905</v>
       </c>
       <c r="I675" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J675" t="s">
         <v>4023</v>
@@ -41680,7 +41695,7 @@
         <v>905</v>
       </c>
       <c r="I676" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J676" t="s">
         <v>4029</v>
@@ -41715,7 +41730,7 @@
         <v>905</v>
       </c>
       <c r="I677" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J677" t="s">
         <v>4035</v>
@@ -41750,7 +41765,7 @@
         <v>905</v>
       </c>
       <c r="I678" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J678" t="s">
         <v>4041</v>
@@ -41785,7 +41800,7 @@
         <v>905</v>
       </c>
       <c r="I679" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J679" t="s">
         <v>4047</v>
@@ -41820,7 +41835,7 @@
         <v>905</v>
       </c>
       <c r="I680" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J680" t="s">
         <v>4053</v>
@@ -41855,7 +41870,7 @@
         <v>905</v>
       </c>
       <c r="I681" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J681" t="s">
         <v>4059</v>
@@ -41890,7 +41905,7 @@
         <v>905</v>
       </c>
       <c r="I682" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J682" t="s">
         <v>4065</v>
@@ -41925,7 +41940,7 @@
         <v>905</v>
       </c>
       <c r="I683" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J683" t="s">
         <v>4071</v>
@@ -41960,7 +41975,7 @@
         <v>905</v>
       </c>
       <c r="I684" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J684" t="s">
         <v>4077</v>
@@ -41995,7 +42010,7 @@
         <v>905</v>
       </c>
       <c r="I685" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J685" t="s">
         <v>4083</v>
@@ -42030,7 +42045,7 @@
         <v>905</v>
       </c>
       <c r="I686" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J686" t="s">
         <v>4089</v>
@@ -42065,7 +42080,7 @@
         <v>905</v>
       </c>
       <c r="I687" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J687" t="s">
         <v>4095</v>
@@ -42100,7 +42115,7 @@
         <v>905</v>
       </c>
       <c r="I688" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J688" t="s">
         <v>4101</v>
@@ -42135,7 +42150,7 @@
         <v>905</v>
       </c>
       <c r="I689" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J689" t="s">
         <v>4107</v>
@@ -42170,7 +42185,7 @@
         <v>905</v>
       </c>
       <c r="I690" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J690" t="s">
         <v>4113</v>
@@ -42205,7 +42220,7 @@
         <v>905</v>
       </c>
       <c r="I691" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J691" t="s">
         <v>4119</v>
@@ -42240,7 +42255,7 @@
         <v>905</v>
       </c>
       <c r="I692" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J692" t="s">
         <v>4125</v>
@@ -42275,7 +42290,7 @@
         <v>905</v>
       </c>
       <c r="I693" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J693" t="s">
         <v>4131</v>
@@ -42310,7 +42325,7 @@
         <v>905</v>
       </c>
       <c r="I694" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J694" t="s">
         <v>4136</v>
@@ -42345,7 +42360,7 @@
         <v>905</v>
       </c>
       <c r="I695" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J695" t="s">
         <v>4142</v>
@@ -42380,7 +42395,7 @@
         <v>905</v>
       </c>
       <c r="I696" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J696" t="s">
         <v>4148</v>
@@ -42415,7 +42430,7 @@
         <v>905</v>
       </c>
       <c r="I697" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J697" t="s">
         <v>4154</v>
@@ -42450,7 +42465,7 @@
         <v>905</v>
       </c>
       <c r="I698" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J698" t="s">
         <v>4160</v>
@@ -42485,7 +42500,7 @@
         <v>905</v>
       </c>
       <c r="I699" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J699" t="s">
         <v>4166</v>
@@ -42520,7 +42535,7 @@
         <v>905</v>
       </c>
       <c r="I700" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J700" t="s">
         <v>4172</v>
@@ -42555,7 +42570,7 @@
         <v>905</v>
       </c>
       <c r="I701" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J701" t="s">
         <v>4178</v>
@@ -42590,7 +42605,7 @@
         <v>905</v>
       </c>
       <c r="I702" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J702" t="s">
         <v>4184</v>
@@ -42625,7 +42640,7 @@
         <v>905</v>
       </c>
       <c r="I703" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J703" t="s">
         <v>4190</v>
@@ -42660,7 +42675,7 @@
         <v>905</v>
       </c>
       <c r="I704" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J704" t="s">
         <v>4196</v>
@@ -42695,7 +42710,7 @@
         <v>905</v>
       </c>
       <c r="I705" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J705" t="s">
         <v>4202</v>
@@ -42730,7 +42745,7 @@
         <v>905</v>
       </c>
       <c r="I706" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J706" t="s">
         <v>4208</v>
@@ -42765,7 +42780,7 @@
         <v>905</v>
       </c>
       <c r="I707" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J707" t="s">
         <v>4214</v>
@@ -42800,7 +42815,7 @@
         <v>905</v>
       </c>
       <c r="I708" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J708" t="s">
         <v>4219</v>
@@ -42835,7 +42850,7 @@
         <v>905</v>
       </c>
       <c r="I709" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J709" t="s">
         <v>4225</v>
@@ -42870,7 +42885,7 @@
         <v>905</v>
       </c>
       <c r="I710" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J710" t="s">
         <v>4230</v>
@@ -42905,7 +42920,7 @@
         <v>905</v>
       </c>
       <c r="I711" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J711" t="s">
         <v>4236</v>
@@ -42940,7 +42955,7 @@
         <v>905</v>
       </c>
       <c r="I712" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J712" t="s">
         <v>4242</v>
@@ -42975,7 +42990,7 @@
         <v>905</v>
       </c>
       <c r="I713" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J713" t="s">
         <v>4248</v>
@@ -43010,7 +43025,7 @@
         <v>905</v>
       </c>
       <c r="I714" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J714" t="s">
         <v>4254</v>
@@ -43045,7 +43060,7 @@
         <v>905</v>
       </c>
       <c r="I715" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J715" t="s">
         <v>4260</v>
@@ -43080,7 +43095,7 @@
         <v>905</v>
       </c>
       <c r="I716" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J716" t="s">
         <v>4266</v>
@@ -43115,7 +43130,7 @@
         <v>905</v>
       </c>
       <c r="I717" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J717" t="s">
         <v>4272</v>
@@ -43150,7 +43165,7 @@
         <v>905</v>
       </c>
       <c r="I718" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J718" t="s">
         <v>4278</v>
@@ -43185,7 +43200,7 @@
         <v>905</v>
       </c>
       <c r="I719" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J719" t="s">
         <v>4284</v>
@@ -43220,7 +43235,7 @@
         <v>905</v>
       </c>
       <c r="I720" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J720" t="s">
         <v>4289</v>
@@ -43255,7 +43270,7 @@
         <v>905</v>
       </c>
       <c r="I721" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J721" t="s">
         <v>4295</v>
@@ -43290,7 +43305,7 @@
         <v>905</v>
       </c>
       <c r="I722" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J722" t="s">
         <v>4301</v>
@@ -43325,7 +43340,7 @@
         <v>905</v>
       </c>
       <c r="I723" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J723" t="s">
         <v>4307</v>
@@ -43360,7 +43375,7 @@
         <v>905</v>
       </c>
       <c r="I724" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J724" t="s">
         <v>4313</v>
@@ -43395,7 +43410,7 @@
         <v>905</v>
       </c>
       <c r="I725" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J725" t="s">
         <v>4318</v>
@@ -43430,7 +43445,7 @@
         <v>905</v>
       </c>
       <c r="I726" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J726" t="s">
         <v>4324</v>
@@ -43465,7 +43480,7 @@
         <v>905</v>
       </c>
       <c r="I727" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J727" t="s">
         <v>4330</v>
@@ -43500,7 +43515,7 @@
         <v>905</v>
       </c>
       <c r="I728" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J728" t="s">
         <v>4336</v>
@@ -43535,7 +43550,7 @@
         <v>905</v>
       </c>
       <c r="I729" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J729" t="s">
         <v>4342</v>
@@ -43570,7 +43585,7 @@
         <v>905</v>
       </c>
       <c r="I730" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J730" t="s">
         <v>4348</v>
@@ -43605,7 +43620,7 @@
         <v>905</v>
       </c>
       <c r="I731" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J731" t="s">
         <v>4354</v>
@@ -43640,7 +43655,7 @@
         <v>905</v>
       </c>
       <c r="I732" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J732" t="s">
         <v>4359</v>
@@ -43675,7 +43690,7 @@
         <v>905</v>
       </c>
       <c r="I733" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J733" t="s">
         <v>4365</v>
@@ -43710,7 +43725,7 @@
         <v>905</v>
       </c>
       <c r="I734" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J734" t="s">
         <v>4371</v>
@@ -43745,7 +43760,7 @@
         <v>905</v>
       </c>
       <c r="I735" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J735" t="s">
         <v>4377</v>
@@ -43780,7 +43795,7 @@
         <v>905</v>
       </c>
       <c r="I736" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J736" t="s">
         <v>4383</v>
@@ -43815,7 +43830,7 @@
         <v>905</v>
       </c>
       <c r="I737" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J737" t="s">
         <v>4389</v>
@@ -43850,7 +43865,7 @@
         <v>905</v>
       </c>
       <c r="I738" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J738" t="s">
         <v>4395</v>
@@ -43885,7 +43900,7 @@
         <v>905</v>
       </c>
       <c r="I739" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J739" t="s">
         <v>4401</v>
@@ -43920,7 +43935,7 @@
         <v>905</v>
       </c>
       <c r="I740" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J740" t="s">
         <v>4407</v>
@@ -43955,7 +43970,7 @@
         <v>905</v>
       </c>
       <c r="I741" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J741" t="s">
         <v>4413</v>
@@ -43990,7 +44005,7 @@
         <v>905</v>
       </c>
       <c r="I742" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J742" t="s">
         <v>4419</v>
@@ -44025,7 +44040,7 @@
         <v>905</v>
       </c>
       <c r="I743" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J743" t="s">
         <v>4424</v>
@@ -44060,7 +44075,7 @@
         <v>905</v>
       </c>
       <c r="I744" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J744" t="s">
         <v>4430</v>
@@ -44095,7 +44110,7 @@
         <v>905</v>
       </c>
       <c r="I745" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J745" t="s">
         <v>4436</v>
@@ -44130,7 +44145,7 @@
         <v>905</v>
       </c>
       <c r="I746" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J746" t="s">
         <v>4442</v>
@@ -44165,7 +44180,7 @@
         <v>905</v>
       </c>
       <c r="I747" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J747" t="s">
         <v>4447</v>
@@ -44200,7 +44215,7 @@
         <v>905</v>
       </c>
       <c r="I748" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J748" t="s">
         <v>4453</v>
@@ -44235,7 +44250,7 @@
         <v>905</v>
       </c>
       <c r="I749" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J749" t="s">
         <v>4458</v>
@@ -44270,7 +44285,7 @@
         <v>905</v>
       </c>
       <c r="I750" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J750" t="s">
         <v>4464</v>
@@ -44305,7 +44320,7 @@
         <v>905</v>
       </c>
       <c r="I751" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J751" t="s">
         <v>4470</v>
@@ -44340,7 +44355,7 @@
         <v>905</v>
       </c>
       <c r="I752" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J752" t="s">
         <v>4476</v>
@@ -44375,7 +44390,7 @@
         <v>905</v>
       </c>
       <c r="I753" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J753" t="s">
         <v>4482</v>
@@ -44410,7 +44425,7 @@
         <v>905</v>
       </c>
       <c r="I754" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J754" t="s">
         <v>4488</v>
@@ -44445,7 +44460,7 @@
         <v>905</v>
       </c>
       <c r="I755" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J755" t="s">
         <v>4494</v>
@@ -44480,7 +44495,7 @@
         <v>905</v>
       </c>
       <c r="I756" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J756" t="s">
         <v>4500</v>
@@ -44515,7 +44530,7 @@
         <v>905</v>
       </c>
       <c r="I757" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J757" t="s">
         <v>4506</v>
@@ -44550,7 +44565,7 @@
         <v>905</v>
       </c>
       <c r="I758" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J758" t="s">
         <v>4512</v>
@@ -44585,7 +44600,7 @@
         <v>905</v>
       </c>
       <c r="I759" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J759" t="s">
         <v>4518</v>
@@ -44620,7 +44635,7 @@
         <v>905</v>
       </c>
       <c r="I760" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J760" t="s">
         <v>4524</v>
@@ -44655,7 +44670,7 @@
         <v>905</v>
       </c>
       <c r="I761" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J761" t="s">
         <v>4530</v>
@@ -44690,7 +44705,7 @@
         <v>905</v>
       </c>
       <c r="I762" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J762" t="s">
         <v>4536</v>
@@ -44725,7 +44740,7 @@
         <v>905</v>
       </c>
       <c r="I763" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J763" t="s">
         <v>4542</v>
@@ -44760,7 +44775,7 @@
         <v>905</v>
       </c>
       <c r="I764" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J764" t="s">
         <v>4548</v>
@@ -44795,7 +44810,7 @@
         <v>905</v>
       </c>
       <c r="I765" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J765" t="s">
         <v>4554</v>
@@ -44830,7 +44845,7 @@
         <v>905</v>
       </c>
       <c r="I766" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J766" t="s">
         <v>4560</v>
@@ -44865,7 +44880,7 @@
         <v>905</v>
       </c>
       <c r="I767" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J767" t="s">
         <v>4566</v>
@@ -44900,7 +44915,7 @@
         <v>905</v>
       </c>
       <c r="I768" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J768" t="s">
         <v>4572</v>
@@ -44935,7 +44950,7 @@
         <v>905</v>
       </c>
       <c r="I769" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J769" t="s">
         <v>4578</v>
@@ -44970,7 +44985,7 @@
         <v>905</v>
       </c>
       <c r="I770" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J770" t="s">
         <v>4584</v>
@@ -45005,7 +45020,7 @@
         <v>905</v>
       </c>
       <c r="I771" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J771" t="s">
         <v>4590</v>
@@ -45040,7 +45055,7 @@
         <v>905</v>
       </c>
       <c r="I772" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J772" t="s">
         <v>4595</v>
@@ -45075,7 +45090,7 @@
         <v>905</v>
       </c>
       <c r="I773" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J773" t="s">
         <v>4601</v>
@@ -45110,7 +45125,7 @@
         <v>905</v>
       </c>
       <c r="I774" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J774" t="s">
         <v>4607</v>
@@ -45145,7 +45160,7 @@
         <v>905</v>
       </c>
       <c r="I775" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J775" t="s">
         <v>4613</v>
@@ -45180,7 +45195,7 @@
         <v>905</v>
       </c>
       <c r="I776" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J776" t="s">
         <v>4618</v>
@@ -45215,7 +45230,7 @@
         <v>905</v>
       </c>
       <c r="I777" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J777" t="s">
         <v>4624</v>
@@ -45250,7 +45265,7 @@
         <v>905</v>
       </c>
       <c r="I778" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J778" t="s">
         <v>4630</v>
@@ -45285,7 +45300,7 @@
         <v>905</v>
       </c>
       <c r="I779" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J779" t="s">
         <v>4636</v>
@@ -45320,7 +45335,7 @@
         <v>905</v>
       </c>
       <c r="I780" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J780" t="s">
         <v>4642</v>
@@ -45355,7 +45370,7 @@
         <v>905</v>
       </c>
       <c r="I781" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J781" t="s">
         <v>4647</v>
@@ -45390,7 +45405,7 @@
         <v>905</v>
       </c>
       <c r="I782" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J782" t="s">
         <v>4652</v>
@@ -45425,7 +45440,7 @@
         <v>905</v>
       </c>
       <c r="I783" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J783" t="s">
         <v>4657</v>
@@ -45460,7 +45475,7 @@
         <v>905</v>
       </c>
       <c r="I784" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J784" t="s">
         <v>4663</v>
@@ -45495,7 +45510,7 @@
         <v>905</v>
       </c>
       <c r="I785" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J785" t="s">
         <v>4669</v>
@@ -45530,7 +45545,7 @@
         <v>905</v>
       </c>
       <c r="I786" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J786" t="s">
         <v>4674</v>
@@ -45565,7 +45580,7 @@
         <v>905</v>
       </c>
       <c r="I787" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J787" t="s">
         <v>4680</v>
@@ -45600,7 +45615,7 @@
         <v>905</v>
       </c>
       <c r="I788" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J788" t="s">
         <v>4686</v>
@@ -45635,7 +45650,7 @@
         <v>905</v>
       </c>
       <c r="I789" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J789" t="s">
         <v>4691</v>
@@ -45670,7 +45685,7 @@
         <v>905</v>
       </c>
       <c r="I790" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J790" t="s">
         <v>4696</v>
@@ -45705,7 +45720,7 @@
         <v>905</v>
       </c>
       <c r="I791" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J791" t="s">
         <v>4702</v>
@@ -45740,7 +45755,7 @@
         <v>905</v>
       </c>
       <c r="I792" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J792" t="s">
         <v>4708</v>
@@ -45775,7 +45790,7 @@
         <v>905</v>
       </c>
       <c r="I793" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J793" t="s">
         <v>4714</v>
@@ -45810,7 +45825,7 @@
         <v>905</v>
       </c>
       <c r="I794" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J794" t="s">
         <v>4720</v>
@@ -45845,7 +45860,7 @@
         <v>905</v>
       </c>
       <c r="I795" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J795" t="s">
         <v>4725</v>
@@ -45880,7 +45895,7 @@
         <v>905</v>
       </c>
       <c r="I796" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J796" t="s">
         <v>4731</v>
@@ -45915,7 +45930,7 @@
         <v>905</v>
       </c>
       <c r="I797" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J797" t="s">
         <v>4736</v>
@@ -45950,7 +45965,7 @@
         <v>905</v>
       </c>
       <c r="I798" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J798" t="s">
         <v>4742</v>
@@ -45985,7 +46000,7 @@
         <v>905</v>
       </c>
       <c r="I799" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J799" t="s">
         <v>4747</v>
@@ -46020,7 +46035,7 @@
         <v>905</v>
       </c>
       <c r="I800" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J800" t="s">
         <v>4753</v>
@@ -46055,7 +46070,7 @@
         <v>905</v>
       </c>
       <c r="I801" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J801" t="s">
         <v>4759</v>
@@ -46090,7 +46105,7 @@
         <v>905</v>
       </c>
       <c r="I802" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J802" t="s">
         <v>4765</v>
@@ -46125,7 +46140,7 @@
         <v>905</v>
       </c>
       <c r="I803" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J803" t="s">
         <v>4771</v>
@@ -46160,7 +46175,7 @@
         <v>905</v>
       </c>
       <c r="I804" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J804" t="s">
         <v>4777</v>
@@ -46195,7 +46210,7 @@
         <v>905</v>
       </c>
       <c r="I805" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J805" t="s">
         <v>4783</v>
@@ -46230,7 +46245,7 @@
         <v>905</v>
       </c>
       <c r="I806" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J806" t="s">
         <v>4789</v>
@@ -46265,7 +46280,7 @@
         <v>905</v>
       </c>
       <c r="I807" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J807" t="s">
         <v>4795</v>
@@ -46300,7 +46315,7 @@
         <v>905</v>
       </c>
       <c r="I808" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J808" t="s">
         <v>4801</v>
@@ -46335,7 +46350,7 @@
         <v>905</v>
       </c>
       <c r="I809" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J809" t="s">
         <v>4806</v>
@@ -46370,7 +46385,7 @@
         <v>905</v>
       </c>
       <c r="I810" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J810" t="s">
         <v>4812</v>
@@ -46405,7 +46420,7 @@
         <v>905</v>
       </c>
       <c r="I811" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J811" t="s">
         <v>4817</v>
@@ -46440,7 +46455,7 @@
         <v>905</v>
       </c>
       <c r="I812" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J812" t="s">
         <v>4823</v>
@@ -46475,7 +46490,7 @@
         <v>905</v>
       </c>
       <c r="I813" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J813" t="s">
         <v>4828</v>
@@ -46510,7 +46525,7 @@
         <v>905</v>
       </c>
       <c r="I814" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J814" t="s">
         <v>4834</v>
@@ -46545,7 +46560,7 @@
         <v>905</v>
       </c>
       <c r="I815" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J815" t="s">
         <v>4840</v>
@@ -46580,7 +46595,7 @@
         <v>905</v>
       </c>
       <c r="I816" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J816" t="s">
         <v>4846</v>
@@ -46615,7 +46630,7 @@
         <v>905</v>
       </c>
       <c r="I817" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J817" t="s">
         <v>4852</v>
@@ -46650,7 +46665,7 @@
         <v>905</v>
       </c>
       <c r="I818" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J818" t="s">
         <v>4858</v>
@@ -46685,7 +46700,7 @@
         <v>905</v>
       </c>
       <c r="I819" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J819" t="s">
         <v>4864</v>
@@ -46720,7 +46735,7 @@
         <v>905</v>
       </c>
       <c r="I820" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J820" t="s">
         <v>4870</v>
@@ -46755,7 +46770,7 @@
         <v>905</v>
       </c>
       <c r="I821" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J821" t="s">
         <v>4876</v>
@@ -46790,7 +46805,7 @@
         <v>905</v>
       </c>
       <c r="I822" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J822" t="s">
         <v>4882</v>
@@ -46825,7 +46840,7 @@
         <v>905</v>
       </c>
       <c r="I823" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J823" t="s">
         <v>4888</v>
@@ -46860,7 +46875,7 @@
         <v>905</v>
       </c>
       <c r="I824" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J824" t="s">
         <v>4893</v>
@@ -46895,7 +46910,7 @@
         <v>905</v>
       </c>
       <c r="I825" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J825" t="s">
         <v>4899</v>
@@ -46930,7 +46945,7 @@
         <v>905</v>
       </c>
       <c r="I826" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J826" t="s">
         <v>4905</v>
@@ -46965,7 +46980,7 @@
         <v>905</v>
       </c>
       <c r="I827" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J827" t="s">
         <v>4911</v>
@@ -47000,7 +47015,7 @@
         <v>905</v>
       </c>
       <c r="I828" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J828" t="s">
         <v>4917</v>
@@ -47035,7 +47050,7 @@
         <v>905</v>
       </c>
       <c r="I829" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J829" t="s">
         <v>4923</v>
@@ -47070,7 +47085,7 @@
         <v>905</v>
       </c>
       <c r="I830" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J830" t="s">
         <v>4928</v>
@@ -47105,7 +47120,7 @@
         <v>905</v>
       </c>
       <c r="I831" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J831" t="s">
         <v>4934</v>
@@ -47140,7 +47155,7 @@
         <v>905</v>
       </c>
       <c r="I832" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J832" t="s">
         <v>4940</v>
@@ -47175,7 +47190,7 @@
         <v>905</v>
       </c>
       <c r="I833" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J833" t="s">
         <v>4946</v>
@@ -47210,7 +47225,7 @@
         <v>905</v>
       </c>
       <c r="I834" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J834" t="s">
         <v>4952</v>
@@ -47245,7 +47260,7 @@
         <v>905</v>
       </c>
       <c r="I835" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J835" t="s">
         <v>4958</v>
@@ -47280,7 +47295,7 @@
         <v>905</v>
       </c>
       <c r="I836" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J836" t="s">
         <v>4964</v>
@@ -47315,7 +47330,7 @@
         <v>905</v>
       </c>
       <c r="I837" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J837" t="s">
         <v>4970</v>
@@ -47350,7 +47365,7 @@
         <v>905</v>
       </c>
       <c r="I838" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J838" t="s">
         <v>4976</v>
@@ -47385,7 +47400,7 @@
         <v>905</v>
       </c>
       <c r="I839" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J839" t="s">
         <v>4982</v>
@@ -47420,7 +47435,7 @@
         <v>905</v>
       </c>
       <c r="I840" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J840" t="s">
         <v>4988</v>
@@ -47455,7 +47470,7 @@
         <v>905</v>
       </c>
       <c r="I841" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J841" t="s">
         <v>4994</v>
@@ -47490,7 +47505,7 @@
         <v>905</v>
       </c>
       <c r="I842" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J842" t="s">
         <v>5000</v>
@@ -47525,7 +47540,7 @@
         <v>905</v>
       </c>
       <c r="I843" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J843" t="s">
         <v>5006</v>
@@ -47560,7 +47575,7 @@
         <v>905</v>
       </c>
       <c r="I844" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J844" t="s">
         <v>5011</v>
@@ -47595,7 +47610,7 @@
         <v>905</v>
       </c>
       <c r="I845" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J845" t="s">
         <v>5016</v>
@@ -47630,7 +47645,7 @@
         <v>905</v>
       </c>
       <c r="I846" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J846" t="s">
         <v>5022</v>
@@ -47665,7 +47680,7 @@
         <v>905</v>
       </c>
       <c r="I847" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J847" t="s">
         <v>5027</v>
@@ -47700,7 +47715,7 @@
         <v>905</v>
       </c>
       <c r="I848" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J848" t="s">
         <v>5033</v>
@@ -47735,7 +47750,7 @@
         <v>905</v>
       </c>
       <c r="I849" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J849" t="s">
         <v>5039</v>
@@ -47770,7 +47785,7 @@
         <v>905</v>
       </c>
       <c r="I850" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J850" t="s">
         <v>5044</v>
@@ -47805,7 +47820,7 @@
         <v>905</v>
       </c>
       <c r="I851" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J851" t="s">
         <v>5050</v>
@@ -47840,7 +47855,7 @@
         <v>905</v>
       </c>
       <c r="I852" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J852" t="s">
         <v>5056</v>
@@ -47875,7 +47890,7 @@
         <v>905</v>
       </c>
       <c r="I853" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J853" t="s">
         <v>5063</v>
@@ -47910,7 +47925,7 @@
         <v>905</v>
       </c>
       <c r="I854" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J854" t="s">
         <v>5069</v>
@@ -47945,7 +47960,7 @@
         <v>905</v>
       </c>
       <c r="I855" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J855" t="s">
         <v>5074</v>
@@ -47980,7 +47995,7 @@
         <v>905</v>
       </c>
       <c r="I856" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J856" t="s">
         <v>5080</v>
@@ -48015,7 +48030,7 @@
         <v>905</v>
       </c>
       <c r="I857" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J857" t="s">
         <v>5085</v>
@@ -48050,7 +48065,7 @@
         <v>905</v>
       </c>
       <c r="I858" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J858" t="s">
         <v>5091</v>
@@ -48085,7 +48100,7 @@
         <v>905</v>
       </c>
       <c r="I859" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J859" t="s">
         <v>5097</v>
@@ -48120,7 +48135,7 @@
         <v>905</v>
       </c>
       <c r="I860" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J860" t="s">
         <v>5103</v>
@@ -48155,7 +48170,7 @@
         <v>905</v>
       </c>
       <c r="I861" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J861" t="s">
         <v>5109</v>
@@ -48190,7 +48205,7 @@
         <v>905</v>
       </c>
       <c r="I862" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J862" t="s">
         <v>5115</v>
@@ -48225,7 +48240,7 @@
         <v>905</v>
       </c>
       <c r="I863" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J863" t="s">
         <v>5121</v>
@@ -48260,7 +48275,7 @@
         <v>905</v>
       </c>
       <c r="I864" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J864" t="s">
         <v>5127</v>
@@ -48295,7 +48310,7 @@
         <v>905</v>
       </c>
       <c r="I865" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J865" t="s">
         <v>5133</v>
@@ -48330,7 +48345,7 @@
         <v>905</v>
       </c>
       <c r="I866" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J866" t="s">
         <v>5139</v>
@@ -48365,7 +48380,7 @@
         <v>905</v>
       </c>
       <c r="I867" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J867" t="s">
         <v>5145</v>
@@ -48400,7 +48415,7 @@
         <v>905</v>
       </c>
       <c r="I868" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J868" t="s">
         <v>5150</v>
@@ -48435,7 +48450,7 @@
         <v>905</v>
       </c>
       <c r="I869" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J869" t="s">
         <v>5156</v>
@@ -48470,7 +48485,7 @@
         <v>905</v>
       </c>
       <c r="I870" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J870" t="s">
         <v>5162</v>
@@ -48505,7 +48520,7 @@
         <v>905</v>
       </c>
       <c r="I871" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J871" t="s">
         <v>5168</v>
@@ -48540,7 +48555,7 @@
         <v>905</v>
       </c>
       <c r="I872" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J872" t="s">
         <v>5174</v>
@@ -48575,7 +48590,7 @@
         <v>905</v>
       </c>
       <c r="I873" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J873" t="s">
         <v>5180</v>
@@ -48610,7 +48625,7 @@
         <v>905</v>
       </c>
       <c r="I874" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J874" t="s">
         <v>5186</v>
@@ -48645,7 +48660,7 @@
         <v>905</v>
       </c>
       <c r="I875" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J875" t="s">
         <v>5192</v>
@@ -48680,7 +48695,7 @@
         <v>905</v>
       </c>
       <c r="I876" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J876" t="s">
         <v>5198</v>
@@ -48715,7 +48730,7 @@
         <v>905</v>
       </c>
       <c r="I877" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J877" t="s">
         <v>5203</v>
@@ -48750,7 +48765,7 @@
         <v>905</v>
       </c>
       <c r="I878" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J878" t="s">
         <v>5209</v>
@@ -48785,7 +48800,7 @@
         <v>905</v>
       </c>
       <c r="I879" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J879" t="s">
         <v>5215</v>
@@ -48820,7 +48835,7 @@
         <v>905</v>
       </c>
       <c r="I880" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J880" t="s">
         <v>5221</v>
@@ -48855,7 +48870,7 @@
         <v>905</v>
       </c>
       <c r="I881" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J881" t="s">
         <v>5227</v>
@@ -48890,7 +48905,7 @@
         <v>905</v>
       </c>
       <c r="I882" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J882" t="s">
         <v>5233</v>
@@ -48925,7 +48940,7 @@
         <v>905</v>
       </c>
       <c r="I883" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J883" t="s">
         <v>5239</v>
@@ -48960,7 +48975,7 @@
         <v>905</v>
       </c>
       <c r="I884" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J884" t="s">
         <v>5245</v>
@@ -48995,7 +49010,7 @@
         <v>905</v>
       </c>
       <c r="I885" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J885" t="s">
         <v>5250</v>
@@ -49030,7 +49045,7 @@
         <v>905</v>
       </c>
       <c r="I886" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J886" t="s">
         <v>5255</v>
@@ -49065,7 +49080,7 @@
         <v>905</v>
       </c>
       <c r="I887" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J887" t="s">
         <v>5261</v>
@@ -49100,7 +49115,7 @@
         <v>905</v>
       </c>
       <c r="I888" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J888" t="s">
         <v>5267</v>
@@ -49135,7 +49150,7 @@
         <v>905</v>
       </c>
       <c r="I889" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J889" t="s">
         <v>5273</v>
@@ -49170,7 +49185,7 @@
         <v>905</v>
       </c>
       <c r="I890" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J890" t="s">
         <v>5279</v>
@@ -49205,7 +49220,7 @@
         <v>905</v>
       </c>
       <c r="I891" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J891" t="s">
         <v>5285</v>
@@ -49240,7 +49255,7 @@
         <v>905</v>
       </c>
       <c r="I892" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J892" t="s">
         <v>5291</v>
@@ -49275,7 +49290,7 @@
         <v>905</v>
       </c>
       <c r="I893" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J893" t="s">
         <v>5297</v>
@@ -49310,7 +49325,7 @@
         <v>905</v>
       </c>
       <c r="I894" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J894" t="s">
         <v>5303</v>
@@ -49345,7 +49360,7 @@
         <v>905</v>
       </c>
       <c r="I895" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J895" t="s">
         <v>5309</v>
@@ -49380,7 +49395,7 @@
         <v>905</v>
       </c>
       <c r="I896" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J896" t="s">
         <v>5314</v>
@@ -49415,7 +49430,7 @@
         <v>905</v>
       </c>
       <c r="I897" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J897" t="s">
         <v>5320</v>
@@ -49450,7 +49465,7 @@
         <v>905</v>
       </c>
       <c r="I898" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J898" t="s">
         <v>5325</v>
@@ -49485,7 +49500,7 @@
         <v>905</v>
       </c>
       <c r="I899" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J899" t="s">
         <v>5331</v>
@@ -49520,7 +49535,7 @@
         <v>905</v>
       </c>
       <c r="I900" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J900" t="s">
         <v>5336</v>
@@ -49555,7 +49570,7 @@
         <v>905</v>
       </c>
       <c r="I901" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J901" t="s">
         <v>5342</v>
@@ -49590,7 +49605,7 @@
         <v>905</v>
       </c>
       <c r="I902" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J902" t="s">
         <v>5348</v>
@@ -49625,7 +49640,7 @@
         <v>905</v>
       </c>
       <c r="I903" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J903" t="s">
         <v>5354</v>
@@ -49660,7 +49675,7 @@
         <v>905</v>
       </c>
       <c r="I904" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J904" t="s">
         <v>5360</v>
@@ -49695,7 +49710,7 @@
         <v>905</v>
       </c>
       <c r="I905" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J905" t="s">
         <v>5366</v>
@@ -49730,7 +49745,7 @@
         <v>905</v>
       </c>
       <c r="I906" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J906" t="s">
         <v>5372</v>
@@ -49765,7 +49780,7 @@
         <v>905</v>
       </c>
       <c r="I907" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J907" t="s">
         <v>5378</v>
@@ -49800,7 +49815,7 @@
         <v>905</v>
       </c>
       <c r="I908" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J908" t="s">
         <v>5384</v>
@@ -49835,7 +49850,7 @@
         <v>905</v>
       </c>
       <c r="I909" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J909" t="s">
         <v>5390</v>
@@ -49870,7 +49885,7 @@
         <v>905</v>
       </c>
       <c r="I910" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J910" t="s">
         <v>5395</v>
@@ -49905,7 +49920,7 @@
         <v>905</v>
       </c>
       <c r="I911" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J911" t="s">
         <v>5401</v>
@@ -49940,7 +49955,7 @@
         <v>905</v>
       </c>
       <c r="I912" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J912" t="s">
         <v>5406</v>
@@ -49975,7 +49990,7 @@
         <v>905</v>
       </c>
       <c r="I913" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J913" t="s">
         <v>5412</v>
@@ -50010,7 +50025,7 @@
         <v>905</v>
       </c>
       <c r="I914" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J914" t="s">
         <v>5418</v>
@@ -50045,7 +50060,7 @@
         <v>905</v>
       </c>
       <c r="I915" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J915" t="s">
         <v>5424</v>
@@ -50080,7 +50095,7 @@
         <v>905</v>
       </c>
       <c r="I916" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J916" t="s">
         <v>5430</v>
@@ -50115,7 +50130,7 @@
         <v>905</v>
       </c>
       <c r="I917" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J917" t="s">
         <v>5435</v>
@@ -50150,7 +50165,7 @@
         <v>905</v>
       </c>
       <c r="I918" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J918" t="s">
         <v>5441</v>
@@ -50185,7 +50200,7 @@
         <v>905</v>
       </c>
       <c r="I919" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J919" t="s">
         <v>5447</v>
@@ -50220,7 +50235,7 @@
         <v>905</v>
       </c>
       <c r="I920" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J920" t="s">
         <v>5453</v>
@@ -50255,7 +50270,7 @@
         <v>905</v>
       </c>
       <c r="I921" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J921" t="s">
         <v>5459</v>
@@ -50290,7 +50305,7 @@
         <v>905</v>
       </c>
       <c r="I922" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J922" t="s">
         <v>5465</v>
@@ -50325,7 +50340,7 @@
         <v>905</v>
       </c>
       <c r="I923" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J923" t="s">
         <v>5471</v>
@@ -50360,7 +50375,7 @@
         <v>905</v>
       </c>
       <c r="I924" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J924" t="s">
         <v>5477</v>
@@ -50395,7 +50410,7 @@
         <v>905</v>
       </c>
       <c r="I925" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J925" t="s">
         <v>5482</v>
@@ -50430,7 +50445,7 @@
         <v>905</v>
       </c>
       <c r="I926" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J926" t="s">
         <v>5488</v>
@@ -50465,7 +50480,7 @@
         <v>905</v>
       </c>
       <c r="I927" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J927" t="s">
         <v>5494</v>
@@ -50500,7 +50515,7 @@
         <v>905</v>
       </c>
       <c r="I928" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J928" t="s">
         <v>5499</v>
@@ -50535,7 +50550,7 @@
         <v>905</v>
       </c>
       <c r="I929" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J929" t="s">
         <v>5505</v>
@@ -50570,7 +50585,7 @@
         <v>905</v>
       </c>
       <c r="I930" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J930" t="s">
         <v>5511</v>
@@ -50605,7 +50620,7 @@
         <v>905</v>
       </c>
       <c r="I931" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J931" t="s">
         <v>5517</v>
@@ -50640,7 +50655,7 @@
         <v>905</v>
       </c>
       <c r="I932" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J932" t="s">
         <v>5523</v>
@@ -50675,7 +50690,7 @@
         <v>905</v>
       </c>
       <c r="I933" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J933" t="s">
         <v>5529</v>
@@ -50710,7 +50725,7 @@
         <v>905</v>
       </c>
       <c r="I934" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J934" t="s">
         <v>5535</v>
@@ -50745,7 +50760,7 @@
         <v>905</v>
       </c>
       <c r="I935" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J935" t="s">
         <v>5541</v>
@@ -50780,7 +50795,7 @@
         <v>905</v>
       </c>
       <c r="I936" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J936" t="s">
         <v>5547</v>
@@ -50815,7 +50830,7 @@
         <v>905</v>
       </c>
       <c r="I937" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J937" t="s">
         <v>5553</v>
@@ -50850,7 +50865,7 @@
         <v>905</v>
       </c>
       <c r="I938" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J938" t="s">
         <v>5559</v>
@@ -50885,7 +50900,7 @@
         <v>905</v>
       </c>
       <c r="I939" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J939" t="s">
         <v>5564</v>
@@ -50920,7 +50935,7 @@
         <v>905</v>
       </c>
       <c r="I940" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J940" t="s">
         <v>5570</v>
@@ -50955,7 +50970,7 @@
         <v>905</v>
       </c>
       <c r="I941" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J941" t="s">
         <v>5576</v>
@@ -50990,7 +51005,7 @@
         <v>905</v>
       </c>
       <c r="I942" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J942" t="s">
         <v>5582</v>
@@ -51025,7 +51040,7 @@
         <v>905</v>
       </c>
       <c r="I943" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J943" t="s">
         <v>5587</v>
@@ -51060,7 +51075,7 @@
         <v>905</v>
       </c>
       <c r="I944" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J944" t="s">
         <v>5593</v>
@@ -51095,7 +51110,7 @@
         <v>905</v>
       </c>
       <c r="I945" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J945" t="s">
         <v>5599</v>
@@ -51130,7 +51145,7 @@
         <v>905</v>
       </c>
       <c r="I946" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J946" t="s">
         <v>5605</v>
@@ -51165,7 +51180,7 @@
         <v>905</v>
       </c>
       <c r="I947" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J947" t="s">
         <v>5611</v>
@@ -51200,7 +51215,7 @@
         <v>905</v>
       </c>
       <c r="I948" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J948" t="s">
         <v>5616</v>
@@ -51235,7 +51250,7 @@
         <v>905</v>
       </c>
       <c r="I949" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J949" t="s">
         <v>5622</v>
@@ -51270,7 +51285,7 @@
         <v>905</v>
       </c>
       <c r="I950" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J950" t="s">
         <v>5629</v>
@@ -51305,7 +51320,7 @@
         <v>905</v>
       </c>
       <c r="I951" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J951" t="s">
         <v>5634</v>
@@ -51340,7 +51355,7 @@
         <v>905</v>
       </c>
       <c r="I952" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J952" t="s">
         <v>5639</v>
@@ -51375,7 +51390,7 @@
         <v>905</v>
       </c>
       <c r="I953" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J953" t="s">
         <v>5644</v>
@@ -51410,7 +51425,7 @@
         <v>905</v>
       </c>
       <c r="I954" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J954" t="s">
         <v>5650</v>
@@ -51445,7 +51460,7 @@
         <v>905</v>
       </c>
       <c r="I955" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J955" t="s">
         <v>5656</v>
@@ -51480,7 +51495,7 @@
         <v>905</v>
       </c>
       <c r="I956" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J956" t="s">
         <v>5662</v>
@@ -51515,7 +51530,7 @@
         <v>905</v>
       </c>
       <c r="I957" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J957" t="s">
         <v>5667</v>
@@ -51550,7 +51565,7 @@
         <v>905</v>
       </c>
       <c r="I958" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J958" t="s">
         <v>5673</v>
@@ -51585,7 +51600,7 @@
         <v>905</v>
       </c>
       <c r="I959" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J959" t="s">
         <v>5679</v>
@@ -51620,7 +51635,7 @@
         <v>905</v>
       </c>
       <c r="I960" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J960" t="s">
         <v>5685</v>
@@ -51655,7 +51670,7 @@
         <v>905</v>
       </c>
       <c r="I961" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J961" t="s">
         <v>5691</v>
@@ -51690,7 +51705,7 @@
         <v>905</v>
       </c>
       <c r="I962" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J962" t="s">
         <v>5697</v>
@@ -51725,7 +51740,7 @@
         <v>905</v>
       </c>
       <c r="I963" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J963" t="s">
         <v>5703</v>
@@ -51760,7 +51775,7 @@
         <v>905</v>
       </c>
       <c r="I964" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J964" t="s">
         <v>5709</v>
@@ -51795,7 +51810,7 @@
         <v>905</v>
       </c>
       <c r="I965" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J965" t="s">
         <v>5715</v>
@@ -51830,7 +51845,7 @@
         <v>905</v>
       </c>
       <c r="I966" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J966" t="s">
         <v>5721</v>
@@ -51865,7 +51880,7 @@
         <v>905</v>
       </c>
       <c r="I967" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J967" t="s">
         <v>5727</v>
@@ -51900,7 +51915,7 @@
         <v>905</v>
       </c>
       <c r="I968" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J968" t="s">
         <v>5733</v>
@@ -51935,7 +51950,7 @@
         <v>905</v>
       </c>
       <c r="I969" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J969" t="s">
         <v>5739</v>
@@ -51970,7 +51985,7 @@
         <v>905</v>
       </c>
       <c r="I970" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J970" t="s">
         <v>5745</v>
@@ -52005,7 +52020,7 @@
         <v>905</v>
       </c>
       <c r="I971" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J971" t="s">
         <v>5751</v>
@@ -52040,7 +52055,7 @@
         <v>905</v>
       </c>
       <c r="I972" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J972" t="s">
         <v>5757</v>
@@ -52075,7 +52090,7 @@
         <v>905</v>
       </c>
       <c r="I973" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J973" t="s">
         <v>5763</v>
@@ -52110,7 +52125,7 @@
         <v>905</v>
       </c>
       <c r="I974" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J974" t="s">
         <v>5769</v>
@@ -52145,7 +52160,7 @@
         <v>905</v>
       </c>
       <c r="I975" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J975" t="s">
         <v>5775</v>
@@ -52180,7 +52195,7 @@
         <v>905</v>
       </c>
       <c r="I976" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J976" t="s">
         <v>5781</v>
@@ -52215,7 +52230,7 @@
         <v>905</v>
       </c>
       <c r="I977" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J977" t="s">
         <v>5787</v>
@@ -52250,7 +52265,7 @@
         <v>905</v>
       </c>
       <c r="I978" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J978" t="s">
         <v>5793</v>
@@ -52285,7 +52300,7 @@
         <v>905</v>
       </c>
       <c r="I979" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J979" t="s">
         <v>5799</v>
@@ -52320,7 +52335,7 @@
         <v>905</v>
       </c>
       <c r="I980" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J980" t="s">
         <v>5804</v>
@@ -52355,7 +52370,7 @@
         <v>905</v>
       </c>
       <c r="I981" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J981" t="s">
         <v>5810</v>
@@ -52390,7 +52405,7 @@
         <v>905</v>
       </c>
       <c r="I982" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J982" t="s">
         <v>5816</v>
@@ -52425,7 +52440,7 @@
         <v>905</v>
       </c>
       <c r="I983" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J983" t="s">
         <v>5822</v>
@@ -52460,7 +52475,7 @@
         <v>905</v>
       </c>
       <c r="I984" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J984" t="s">
         <v>5828</v>
@@ -52495,7 +52510,7 @@
         <v>905</v>
       </c>
       <c r="I985" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J985" t="s">
         <v>5834</v>
@@ -52530,7 +52545,7 @@
         <v>905</v>
       </c>
       <c r="I986" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J986" t="s">
         <v>5839</v>
@@ -52565,7 +52580,7 @@
         <v>905</v>
       </c>
       <c r="I987" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J987" t="s">
         <v>5845</v>
@@ -52600,7 +52615,7 @@
         <v>905</v>
       </c>
       <c r="I988" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J988" t="s">
         <v>5851</v>
@@ -52635,7 +52650,7 @@
         <v>905</v>
       </c>
       <c r="I989" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J989" t="s">
         <v>5857</v>
@@ -52670,7 +52685,7 @@
         <v>905</v>
       </c>
       <c r="I990" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J990" t="s">
         <v>5863</v>
@@ -52705,7 +52720,7 @@
         <v>905</v>
       </c>
       <c r="I991" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J991" t="s">
         <v>5869</v>
@@ -52740,7 +52755,7 @@
         <v>905</v>
       </c>
       <c r="I992" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J992" t="s">
         <v>5874</v>
@@ -52775,7 +52790,7 @@
         <v>905</v>
       </c>
       <c r="I993" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J993" t="s">
         <v>5880</v>
@@ -52810,7 +52825,7 @@
         <v>905</v>
       </c>
       <c r="I994" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J994" t="s">
         <v>5886</v>
@@ -52845,7 +52860,7 @@
         <v>905</v>
       </c>
       <c r="I995" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J995" t="s">
         <v>5892</v>
@@ -52880,7 +52895,7 @@
         <v>905</v>
       </c>
       <c r="I996" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J996" t="s">
         <v>5898</v>
@@ -52915,7 +52930,7 @@
         <v>905</v>
       </c>
       <c r="I997" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J997" t="s">
         <v>5904</v>
@@ -52950,7 +52965,7 @@
         <v>905</v>
       </c>
       <c r="I998" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J998" t="s">
         <v>5910</v>
@@ -52985,7 +53000,7 @@
         <v>905</v>
       </c>
       <c r="I999" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J999" t="s">
         <v>5916</v>
@@ -53020,7 +53035,7 @@
         <v>905</v>
       </c>
       <c r="I1000" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J1000" t="s">
         <v>5922</v>
@@ -53055,7 +53070,7 @@
         <v>905</v>
       </c>
       <c r="I1001" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="J1001" t="s">
         <v>5928</v>
@@ -53100,6 +53115,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I1002" xr:uid="{96A8EB22-FB3B-A342-B59F-0123AFDF734E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>